--- a/sriramModel-nelson-atypical-patientID_22-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_22-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.010093725473568</v>
+        <v>5.011034455999875</v>
       </c>
       <c r="C2">
-        <v>5.005168244116819</v>
+        <v>5.00463364845279</v>
       </c>
       <c r="D2">
-        <v>5.008897654879971</v>
+        <v>5.006595355049066</v>
       </c>
       <c r="E2">
-        <v>5.005806657529059</v>
+        <v>5.007325913207329</v>
       </c>
       <c r="F2">
-        <v>5.008206399940776</v>
+        <v>5.009015302360625</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.020372975403392</v>
+        <v>5.020960113633551</v>
       </c>
       <c r="C3">
-        <v>5.010469101908051</v>
+        <v>5.009716943977288</v>
       </c>
       <c r="D3">
-        <v>5.01747381896062</v>
+        <v>5.01298738281054</v>
       </c>
       <c r="E3">
-        <v>5.011966480793638</v>
+        <v>5.013894227705404</v>
       </c>
       <c r="F3">
-        <v>5.016052980077779</v>
+        <v>5.016614487397495</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.030803995116765</v>
+        <v>5.029854571113679</v>
       </c>
       <c r="C4">
-        <v>5.015916634908796</v>
+        <v>5.015288357340671</v>
       </c>
       <c r="D4">
-        <v>5.025745710099454</v>
+        <v>5.019191495915911</v>
       </c>
       <c r="E4">
-        <v>5.018472436912001</v>
+        <v>5.019759740548627</v>
       </c>
       <c r="F4">
-        <v>5.023556709447165</v>
+        <v>5.022915488597688</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.041355470276265</v>
+        <v>5.037792017557614</v>
       </c>
       <c r="C5">
-        <v>5.021521893427393</v>
+        <v>5.021369816415624</v>
       </c>
       <c r="D5">
-        <v>5.033730231826913</v>
+        <v>5.025222845113825</v>
       </c>
       <c r="E5">
-        <v>5.025309757581637</v>
+        <v>5.024974929729392</v>
       </c>
       <c r="F5">
-        <v>5.030734066954876</v>
+        <v>5.02803049886334</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.051998331554551</v>
+        <v>5.044842922790356</v>
       </c>
       <c r="C6">
-        <v>5.027293144296504</v>
+        <v>5.027956100225166</v>
       </c>
       <c r="D6">
-        <v>5.041443555878661</v>
+        <v>5.031095971593137</v>
       </c>
       <c r="E6">
-        <v>5.032458625512562</v>
+        <v>5.029589954564641</v>
       </c>
       <c r="F6">
-        <v>5.037601069068987</v>
+        <v>5.032065854488051</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.062705665020886</v>
+        <v>5.051074102872777</v>
       </c>
       <c r="C7">
-        <v>5.033236198917093</v>
+        <v>5.035005729390155</v>
       </c>
       <c r="D7">
-        <v>5.048901139350187</v>
+        <v>5.036824837755068</v>
       </c>
       <c r="E7">
-        <v>5.039896205235519</v>
+        <v>5.033652974327408</v>
       </c>
       <c r="F7">
-        <v>5.044173293001897</v>
+        <v>5.035122416756026</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.073452527499913</v>
+        <v>5.056549385095011</v>
       </c>
       <c r="C8">
-        <v>5.039354771847417</v>
+        <v>5.042441489199905</v>
       </c>
       <c r="D8">
-        <v>5.056117799764362</v>
+        <v>5.042422866011215</v>
       </c>
       <c r="E8">
-        <v>5.047598072149996</v>
+        <v>5.037210181495632</v>
       </c>
       <c r="F8">
-        <v>5.050465893196831</v>
+        <v>5.037296078227026</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.084215831761782</v>
+        <v>5.061329572709913</v>
       </c>
       <c r="C9">
-        <v>5.045650695201065</v>
+        <v>5.050164924418229</v>
       </c>
       <c r="D9">
-        <v>5.063107735239408</v>
+        <v>5.047903016991193</v>
       </c>
       <c r="E9">
-        <v>5.055539268892857</v>
+        <v>5.040305766918393</v>
       </c>
       <c r="F9">
-        <v>5.056493617079013</v>
+        <v>5.038677859164006</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.094974192797392</v>
+        <v>5.06547254298491</v>
       </c>
       <c r="C10">
-        <v>5.052124143715345</v>
+        <v>5.058077643855997</v>
       </c>
       <c r="D10">
-        <v>5.069884556901908</v>
+        <v>5.05327779325911</v>
       </c>
       <c r="E10">
-        <v>5.063695001182097</v>
+        <v>5.042981995009632</v>
       </c>
       <c r="F10">
-        <v>5.06227082044248</v>
+        <v>5.039354071565958</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.105707774718973</v>
+        <v>5.06903327550616</v>
       </c>
       <c r="C11">
-        <v>5.058773870536931</v>
+        <v>5.066097154608825</v>
       </c>
       <c r="D11">
-        <v>5.076461284638107</v>
+        <v>5.058559230502272</v>
       </c>
       <c r="E11">
-        <v>5.072041108302637</v>
+        <v>5.045279371264253</v>
       </c>
       <c r="F11">
-        <v>5.067811481170493</v>
+        <v>5.039406540460627</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.116398161597402</v>
+        <v>5.072064220356167</v>
       </c>
       <c r="C12">
-        <v>5.065597391491681</v>
+        <v>5.07416208186905</v>
       </c>
       <c r="D12">
-        <v>5.082850614135741</v>
+        <v>5.063758894275356</v>
       </c>
       <c r="E12">
-        <v>5.080554388881131</v>
+        <v>5.047236709376938</v>
       </c>
       <c r="F12">
-        <v>5.073129211204827</v>
+        <v>5.038912733572797</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.12702821075014</v>
+        <v>5.07461533726862</v>
       </c>
       <c r="C13">
-        <v>5.07259114652652</v>
+        <v>5.08223003238592</v>
       </c>
       <c r="D13">
-        <v>5.089064510794435</v>
+        <v>5.0688879082885</v>
       </c>
       <c r="E13">
-        <v>5.089212769355111</v>
+        <v>5.04889118782026</v>
       </c>
       <c r="F13">
-        <v>5.078237269420685</v>
+        <v>5.037946060400404</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.137581922627541</v>
+        <v>5.076734203714534</v>
       </c>
       <c r="C14">
-        <v>5.079750652571537</v>
+        <v>5.090272896858315</v>
       </c>
       <c r="D14">
-        <v>5.095114399057056</v>
+        <v>5.073956983502699</v>
       </c>
       <c r="E14">
-        <v>5.097995404351785</v>
+        <v>5.050278374887446</v>
       </c>
       <c r="F14">
-        <v>5.083148573443107</v>
+        <v>5.036576011748368</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.148044327604712</v>
+        <v>5.078466148876946</v>
       </c>
       <c r="C15">
-        <v>5.087070644202273</v>
+        <v>5.098272394525482</v>
       </c>
       <c r="D15">
-        <v>5.101011235194883</v>
+        <v>5.078976435362168</v>
       </c>
       <c r="E15">
-        <v>5.106882716492072</v>
+        <v>5.051432300203932</v>
       </c>
       <c r="F15">
-        <v>5.087875709853245</v>
+        <v>5.034868319564454</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.158401389774371</v>
+        <v>5.079854281405438</v>
       </c>
       <c r="C16">
-        <v>5.094545198901741</v>
+        <v>5.106216722241097</v>
       </c>
       <c r="D16">
-        <v>5.106765526974139</v>
+        <v>5.083956191274327</v>
       </c>
       <c r="E16">
-        <v>5.115856391244382</v>
+        <v>5.05238553779796</v>
       </c>
       <c r="F16">
-        <v>5.092430943852015</v>
+        <v>5.032885125546382</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.168639939201847</v>
+        <v>5.080939635584988</v>
       </c>
       <c r="C17">
-        <v>5.102167846893224</v>
+        <v>5.114098272105222</v>
       </c>
       <c r="D17">
-        <v>5.112387330213569</v>
+        <v>5.088905802374057</v>
       </c>
       <c r="E17">
-        <v>5.124899348742336</v>
+        <v>5.053169233872158</v>
       </c>
       <c r="F17">
-        <v>5.096826228844546</v>
+        <v>5.030685117770836</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.178747634088073</v>
+        <v>5.081761289846599</v>
       </c>
       <c r="C18">
-        <v>5.10993166246437</v>
+        <v>5.121912144572293</v>
       </c>
       <c r="D18">
-        <v>5.117886257691584</v>
+        <v>5.093834451437911</v>
       </c>
       <c r="E18">
-        <v>5.133995697467026</v>
+        <v>5.053813177094712</v>
       </c>
       <c r="F18">
-        <v>5.101073215841307</v>
+        <v>5.02832368892728</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.188712951624525</v>
+        <v>5.08235641227869</v>
       </c>
       <c r="C19">
-        <v>5.117829348513768</v>
+        <v>5.129655196074583</v>
       </c>
       <c r="D19">
-        <v>5.123271481875893</v>
+        <v>5.098750964976133</v>
       </c>
       <c r="E19">
-        <v>5.14313067831548</v>
+        <v>5.054345865655256</v>
       </c>
       <c r="F19">
-        <v>5.105183261590202</v>
+        <v>5.025853098272949</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.198525203323212</v>
+        <v>5.082760422065409</v>
       </c>
       <c r="C20">
-        <v>5.125853314841322</v>
+        <v>5.137325433022437</v>
       </c>
       <c r="D20">
-        <v>5.128551760784325</v>
+        <v>5.103663810544535</v>
       </c>
       <c r="E20">
-        <v>5.152290600795889</v>
+        <v>5.054794542105238</v>
       </c>
       <c r="F20">
-        <v>5.109167438306327</v>
+        <v>5.023322595982313</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.208174563224435</v>
+        <v>5.08300700573839</v>
       </c>
       <c r="C21">
-        <v>5.133995749194275</v>
+        <v>5.144921623288028</v>
       </c>
       <c r="D21">
-        <v>5.133735431501224</v>
+        <v>5.108581149767438</v>
       </c>
       <c r="E21">
-        <v>5.161462779062071</v>
+        <v>5.055185224680674</v>
       </c>
       <c r="F21">
-        <v>5.113036539229523</v>
+        <v>5.020778554191267</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.217652097555202</v>
+        <v>5.08312824071045</v>
       </c>
       <c r="C22">
-        <v>5.142248673711402</v>
+        <v>5.152443045169661</v>
       </c>
       <c r="D22">
-        <v>5.138830455418829</v>
+        <v>5.113510784874347</v>
       </c>
       <c r="E22">
-        <v>5.170635468842727</v>
+        <v>5.055542779593979</v>
       </c>
       <c r="F22">
-        <v>5.116801086799049</v>
+        <v>5.018264601557115</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.226949785526082</v>
+        <v>5.083154673419346</v>
       </c>
       <c r="C23">
-        <v>5.150603996816822</v>
+        <v>5.159889323014955</v>
       </c>
       <c r="D23">
-        <v>5.143844406040505</v>
+        <v>5.118460242060664</v>
       </c>
       <c r="E23">
-        <v>5.179797804483062</v>
+        <v>5.055890977380239</v>
       </c>
       <c r="F23">
-        <v>5.120471339967681</v>
+        <v>5.015821709129535</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.236060526232671</v>
+        <v>5.083115347710567</v>
       </c>
       <c r="C24">
-        <v>5.159053558593329</v>
+        <v>5.167260318320968</v>
       </c>
       <c r="D24">
-        <v>5.148784492155378</v>
+        <v>5.123436720238696</v>
       </c>
       <c r="E24">
-        <v>5.188939738208326</v>
+        <v>5.056252433999507</v>
       </c>
       <c r="F24">
-        <v>5.124057301037578</v>
+        <v>5.013488345141332</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.244978127266592</v>
+        <v>5.083037944797972</v>
       </c>
       <c r="C25">
-        <v>5.167589170010757</v>
+        <v>5.174556058620742</v>
       </c>
       <c r="D25">
-        <v>5.153657596618144</v>
+        <v>5.128447137695102</v>
       </c>
       <c r="E25">
-        <v>5.198051982691256</v>
+        <v>5.056648825730055</v>
       </c>
       <c r="F25">
-        <v>5.127568722100301</v>
+        <v>5.011300568854479</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.253697278735292</v>
+        <v>5.082948767773035</v>
       </c>
       <c r="C26">
-        <v>5.176202648056122</v>
+        <v>5.18177668669582</v>
       </c>
       <c r="D26">
-        <v>5.158470200394083</v>
+        <v>5.133498130112194</v>
       </c>
       <c r="E26">
-        <v>5.20712595727352</v>
+        <v>5.057100680998842</v>
       </c>
       <c r="F26">
-        <v>5.131015110971319</v>
+        <v>5.009292132091064</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.262213514756637</v>
+        <v>5.082872875626697</v>
       </c>
       <c r="C27">
-        <v>5.184885846239154</v>
+        <v>5.188922427402558</v>
       </c>
       <c r="D27">
-        <v>5.163228450550256</v>
+        <v>5.138596042145429</v>
       </c>
       <c r="E27">
-        <v>5.216153737496788</v>
+        <v>5.057627719926083</v>
       </c>
       <c r="F27">
-        <v>5.134405737035168</v>
+        <v>5.007494580993069</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.270523166197202</v>
+        <v>5.08283408791061</v>
       </c>
       <c r="C28">
-        <v>5.193630680478713</v>
+        <v>5.195993564274509</v>
       </c>
       <c r="D28">
-        <v>5.167938209101227</v>
+        <v>5.143746970789962</v>
       </c>
       <c r="E28">
-        <v>5.225128007670756</v>
+        <v>5.05824860894909</v>
       </c>
       <c r="F28">
-        <v>5.13774963678433</v>
+        <v>5.005937343073583</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.278623308121762</v>
+        <v>5.082855081126329</v>
       </c>
       <c r="C29">
-        <v>5.20242915134438</v>
+        <v>5.202990422734872</v>
       </c>
       <c r="D29">
-        <v>5.172604975799081</v>
+        <v>5.148956731964696</v>
       </c>
       <c r="E29">
-        <v>5.234042016967006</v>
+        <v>5.058981215902897</v>
       </c>
       <c r="F29">
-        <v>5.141055619116532</v>
+        <v>5.004647812836496</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.286511705406976</v>
+        <v>5.082957418153927</v>
       </c>
       <c r="C30">
-        <v>5.211273363004941</v>
+        <v>5.209913357883729</v>
       </c>
       <c r="D30">
-        <v>5.177233984539508</v>
+        <v>5.154230905424833</v>
       </c>
       <c r="E30">
-        <v>5.242889538790891</v>
+        <v>5.059842520199471</v>
       </c>
       <c r="F30">
-        <v>5.144332270368547</v>
+        <v>5.003651453252446</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.294186756736523</v>
+        <v>5.083161619500487</v>
       </c>
       <c r="C31">
-        <v>5.220155539557511</v>
+        <v>5.216762746995418</v>
       </c>
       <c r="D31">
-        <v>5.181830159797156</v>
+        <v>5.159574817547341</v>
       </c>
       <c r="E31">
-        <v>5.251664832981915</v>
+        <v>5.060848659184492</v>
       </c>
       <c r="F31">
-        <v>5.147587958937812</v>
+        <v>5.00297186525672</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.301647439950376</v>
+        <v>5.08348719859314</v>
       </c>
       <c r="C32">
-        <v>5.229068038768207</v>
+        <v>5.223538983607448</v>
       </c>
       <c r="D32">
-        <v>5.186398131292422</v>
+        <v>5.164993555015467</v>
       </c>
       <c r="E32">
-        <v>5.260362610986743</v>
+        <v>5.062015007610655</v>
       </c>
       <c r="F32">
-        <v>5.150830839605545</v>
+        <v>5.002630863656195</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.308893260283531</v>
+        <v>5.083952720803032</v>
       </c>
       <c r="C33">
-        <v>5.23800336329155</v>
+        <v>5.230242472058575</v>
       </c>
       <c r="D33">
-        <v>5.190942256611587</v>
+        <v>5.170491984416659</v>
       </c>
       <c r="E33">
-        <v>5.268978003648414</v>
+        <v>5.063356114388756</v>
       </c>
       <c r="F33">
-        <v>5.154068857537575</v>
+        <v>5.002648553583781</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.315924201249273</v>
+        <v>5.084575839765021</v>
       </c>
       <c r="C34">
-        <v>5.2469541702878</v>
+        <v>5.236873624743603</v>
       </c>
       <c r="D34">
-        <v>5.195466595180098</v>
+        <v>5.176074728786665</v>
       </c>
       <c r="E34">
-        <v>5.277506531465977</v>
+        <v>5.064885813028633</v>
       </c>
       <c r="F34">
-        <v>5.157309751921863</v>
+        <v>5.003043381655268</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.322740677898039</v>
+        <v>5.085373343198676</v>
       </c>
       <c r="C35">
-        <v>5.255913279093322</v>
+        <v>5.243432859604204</v>
       </c>
       <c r="D35">
-        <v>5.199974947469133</v>
+        <v>5.181746209546402</v>
       </c>
       <c r="E35">
-        <v>5.285944077191716</v>
+        <v>5.066617187183884</v>
       </c>
       <c r="F35">
-        <v>5.160561059182465</v>
+        <v>5.003832218369248</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.32934349327991</v>
+        <v>5.086361195206424</v>
       </c>
       <c r="C36">
-        <v>5.264873677357778</v>
+        <v>5.249920598379967</v>
       </c>
       <c r="D36">
-        <v>5.20447084510936</v>
+        <v>5.187510621410631</v>
       </c>
       <c r="E36">
-        <v>5.294286859943909</v>
+        <v>5.068562626663893</v>
       </c>
       <c r="F36">
-        <v>5.163830115729434</v>
+        <v>5.005030413442435</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.335733798197404</v>
+        <v>5.087554567481281</v>
       </c>
       <c r="C37">
-        <v>5.273828525827384</v>
+        <v>5.256337265190512</v>
       </c>
       <c r="D37">
-        <v>5.208957558669119</v>
+        <v>5.193371957262427</v>
       </c>
       <c r="E37">
-        <v>5.302531411946</v>
+        <v>5.070733844679006</v>
       </c>
       <c r="F37">
-        <v>5.16712406015904</v>
+        <v>5.006651849716531</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.34191305415599</v>
+        <v>5.088967887234751</v>
       </c>
       <c r="C38">
-        <v>5.282771161980486</v>
+        <v>5.262683285403869</v>
       </c>
       <c r="D38">
-        <v>5.21343810827306</v>
+        <v>5.199334008104979</v>
       </c>
       <c r="E38">
-        <v>5.31067455704761</v>
+        <v>5.073141901421979</v>
       </c>
       <c r="F38">
-        <v>5.170449834724133</v>
+        <v>5.008708997036131</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.347882999003396</v>
+        <v>5.0906148584144</v>
       </c>
       <c r="C39">
-        <v>5.291695102726933</v>
+        <v>5.268959084587134</v>
       </c>
       <c r="D39">
-        <v>5.217915266247434</v>
+        <v>5.205400357837365</v>
       </c>
       <c r="E39">
-        <v>5.318713391066941</v>
+        <v>5.075797215636594</v>
       </c>
       <c r="F39">
-        <v>5.173814186093938</v>
+        <v>5.011212961053525</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.353645615540614</v>
+        <v>5.092508509629933</v>
       </c>
       <c r="C40">
-        <v>5.300594045937764</v>
+        <v>5.275165088042637</v>
       </c>
       <c r="D40">
-        <v>5.222391565754788</v>
+        <v>5.211574407993865</v>
       </c>
       <c r="E40">
-        <v>5.326645262848554</v>
+        <v>5.078709600621861</v>
       </c>
       <c r="F40">
-        <v>5.177223665393165</v>
+        <v>5.014173522327075</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.359203102586118</v>
+        <v>5.094661209524645</v>
       </c>
       <c r="C41">
-        <v>5.309461871475019</v>
+        <v>5.281301720859547</v>
       </c>
       <c r="D41">
-        <v>5.226869302281513</v>
+        <v>5.21785935810068</v>
       </c>
       <c r="E41">
-        <v>5.334467757006026</v>
+        <v>5.081888264643404</v>
       </c>
       <c r="F41">
-        <v>5.180684626709137</v>
+        <v>5.01759919222429</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.364557848621733</v>
+        <v>5.097084715605878</v>
       </c>
       <c r="C42">
-        <v>5.318292641456575</v>
+        <v>5.287369407250038</v>
       </c>
       <c r="D42">
-        <v>5.231350536273068</v>
+        <v>5.224258230732611</v>
       </c>
       <c r="E42">
-        <v>5.342178678150004</v>
+        <v>5.085341840510297</v>
       </c>
       <c r="F42">
-        <v>5.184203224387931</v>
+        <v>5.021497245435682</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.369712407623149</v>
+        <v>5.099790185612145</v>
       </c>
       <c r="C43">
-        <v>5.327080599956205</v>
+        <v>5.293368569897491</v>
       </c>
       <c r="D43">
-        <v>5.235837100559008</v>
+        <v>5.230773860813384</v>
       </c>
       <c r="E43">
-        <v>5.349776036278258</v>
+        <v>5.089078393076144</v>
       </c>
       <c r="F43">
-        <v>5.187785408580655</v>
+        <v>5.025873756439593</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.374669477046335</v>
+        <v>5.102788220015113</v>
       </c>
       <c r="C44">
-        <v>5.335820172222784</v>
+        <v>5.299299630276227</v>
       </c>
       <c r="D44">
-        <v>5.240330597204255</v>
+        <v>5.237408903542371</v>
       </c>
       <c r="E44">
-        <v>5.357258033150194</v>
+        <v>5.093105434552389</v>
       </c>
       <c r="F44">
-        <v>5.191436917858884</v>
+        <v>5.03073363473819</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.379431878144733</v>
+        <v>5.106088867237929</v>
       </c>
       <c r="C45">
-        <v>5.344505963001013</v>
+        <v>5.305163007595412</v>
       </c>
       <c r="D45">
-        <v>5.244832406680801</v>
+        <v>5.244165842223289</v>
       </c>
       <c r="E45">
-        <v>5.364623049637591</v>
+        <v>5.09742994254585</v>
       </c>
       <c r="F45">
-        <v>5.195163270004814</v>
+        <v>5.036080648957526</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.384002536977436</v>
+        <v>5.109701671830035</v>
       </c>
       <c r="C46">
-        <v>5.353132756222344</v>
+        <v>5.310959119867197</v>
       </c>
       <c r="D46">
-        <v>5.249343685460472</v>
+        <v>5.251046977807816</v>
       </c>
       <c r="E46">
-        <v>5.371869633974693</v>
+        <v>5.102058365151902</v>
       </c>
       <c r="F46">
-        <v>5.198969748848651</v>
+        <v>5.041917460704565</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.388384467470237</v>
+        <v>5.113635672248226</v>
       </c>
       <c r="C47">
-        <v>5.361695511947353</v>
+        <v>5.316688381929209</v>
       </c>
       <c r="D47">
-        <v>5.253865371708284</v>
+        <v>5.258054446763464</v>
       </c>
       <c r="E47">
-        <v>5.378996490846234</v>
+        <v>5.106996641486156</v>
       </c>
       <c r="F47">
-        <v>5.202861386516697</v>
+        <v>5.048245648698489</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.392580757178446</v>
+        <v>5.117899446098898</v>
       </c>
       <c r="C48">
-        <v>5.370189366380847</v>
+        <v>5.322351208005128</v>
       </c>
       <c r="D48">
-        <v>5.258398185480003</v>
+        <v>5.265190209631355</v>
       </c>
       <c r="E48">
-        <v>5.386002471273012</v>
+        <v>5.112250203369248</v>
       </c>
       <c r="F48">
-        <v>5.206842940221721</v>
+        <v>5.055065729670363</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.396594552144189</v>
+        <v>5.122501106629349</v>
       </c>
       <c r="C49">
-        <v>5.378609626365627</v>
+        <v>5.32794800898436</v>
       </c>
       <c r="D49">
-        <v>5.262942630821684</v>
+        <v>5.272456061002909</v>
       </c>
       <c r="E49">
-        <v>5.392886563110863</v>
+        <v>5.117823994839017</v>
       </c>
       <c r="F49">
-        <v>5.210918862358823</v>
+        <v>5.062377185352065</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.400429046310065</v>
+        <v>5.127448345082309</v>
       </c>
       <c r="C50">
-        <v>5.386951769993468</v>
+        <v>5.333479194622413</v>
       </c>
       <c r="D50">
-        <v>5.267498996252109</v>
+        <v>5.279853627078772</v>
       </c>
       <c r="E50">
-        <v>5.399647882386163</v>
+        <v>5.123722469823312</v>
       </c>
       <c r="F50">
-        <v>5.215093261619618</v>
+        <v>5.070178441907757</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.40408746980323</v>
+        <v>5.13274842531561</v>
       </c>
       <c r="C51">
-        <v>5.395211441996443</v>
+        <v>5.33894517203345</v>
       </c>
       <c r="D51">
-        <v>5.272067357875004</v>
+        <v>5.28738436530054</v>
       </c>
       <c r="E51">
-        <v>5.406285665072284</v>
+        <v>5.129949612848249</v>
       </c>
       <c r="F51">
-        <v>5.219369855743182</v>
+        <v>5.078466932336077</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.40757307677638</v>
+        <v>5.138408223185155</v>
       </c>
       <c r="C52">
-        <v>5.403384452378206</v>
+        <v>5.344346346371056</v>
       </c>
       <c r="D52">
-        <v>5.276647571993998</v>
+        <v>5.29504956808848</v>
       </c>
       <c r="E52">
-        <v>5.412799259329664</v>
+        <v>5.136508929918276</v>
       </c>
       <c r="F52">
-        <v>5.223751912350242</v>
+        <v>5.087239084394698</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.41089070214171</v>
+        <v>5.144434218286074</v>
       </c>
       <c r="C53">
-        <v>5.411468537945549</v>
+        <v>5.349683120567235</v>
       </c>
       <c r="D53">
-        <v>5.28124641254226</v>
+        <v>5.302850358952833</v>
       </c>
       <c r="E53">
-        <v>5.419188839239185</v>
+        <v>5.143403472060288</v>
       </c>
       <c r="F53">
-        <v>5.228259912002406</v>
+        <v>5.096490343230068</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.414051136434848</v>
+        <v>5.150832531861274</v>
       </c>
       <c r="C54">
-        <v>5.41946820939868</v>
+        <v>5.354955894997145</v>
       </c>
       <c r="D54">
-        <v>5.285897587808286</v>
+        <v>5.310787694708669</v>
       </c>
       <c r="E54">
-        <v>5.425457429137973</v>
+        <v>5.150635819056135</v>
       </c>
       <c r="F54">
-        <v>5.232982471950004</v>
+        <v>5.106215162537767</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.417065927795568</v>
+        <v>5.157608913486757</v>
       </c>
       <c r="C55">
-        <v>5.427388983480616</v>
+        <v>5.360165067846246</v>
       </c>
       <c r="D55">
-        <v>5.290639487691355</v>
+        <v>5.318862362377033</v>
       </c>
       <c r="E55">
-        <v>5.43160855556838</v>
+        <v>5.158208105330889</v>
       </c>
       <c r="F55">
-        <v>5.238021680959735</v>
+        <v>5.116407011578371</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.419945808765593</v>
+        <v>5.164768779411303</v>
       </c>
       <c r="C56">
-        <v>5.43523551795705</v>
+        <v>5.365311035470328</v>
       </c>
       <c r="D56">
-        <v>5.295507483986245</v>
+        <v>5.327074979945938</v>
       </c>
       <c r="E56">
-        <v>5.437645507507288</v>
+        <v>5.166121999597766</v>
       </c>
       <c r="F56">
-        <v>5.243474140942356</v>
+        <v>5.127058379957501</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.422700760864347</v>
+        <v>5.172317195498163</v>
       </c>
       <c r="C57">
-        <v>5.443011756884747</v>
+        <v>5.370394191281531</v>
       </c>
       <c r="D57">
-        <v>5.300534166458344</v>
+        <v>5.335425989669815</v>
       </c>
       <c r="E57">
-        <v>5.443571362281433</v>
+        <v>5.174378729296338</v>
       </c>
       <c r="F57">
-        <v>5.24943052428672</v>
+        <v>5.138160778699674</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.425340057315906</v>
+        <v>5.180258912985006</v>
       </c>
       <c r="C58">
-        <v>5.45072093737237</v>
+        <v>5.375414926221338</v>
       </c>
       <c r="D58">
-        <v>5.305749367840362</v>
+        <v>5.343915664545398</v>
       </c>
       <c r="E58">
-        <v>5.449389003180836</v>
+        <v>5.182979058169868</v>
       </c>
       <c r="F58">
-        <v>5.255974810016508</v>
+        <v>5.149704745159901</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.427872288655591</v>
+        <v>5.18859834781165</v>
       </c>
       <c r="C59">
-        <v>5.458365659137783</v>
+        <v>5.380373630107553</v>
       </c>
       <c r="D59">
-        <v>5.311180108970525</v>
+        <v>5.352544094893693</v>
       </c>
       <c r="E59">
-        <v>5.455101136051664</v>
+        <v>5.191923309109884</v>
       </c>
       <c r="F59">
-        <v>5.263183435197712</v>
+        <v>5.161679840589803</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.430305443075309</v>
+        <v>5.197339615426385</v>
       </c>
       <c r="C60">
-        <v>5.465947963940738</v>
+        <v>5.385270689259531</v>
       </c>
       <c r="D60">
-        <v>5.316850727413365</v>
+        <v>5.361311189145604</v>
       </c>
       <c r="E60">
-        <v>5.460710303404592</v>
+        <v>5.201211338330982</v>
       </c>
       <c r="F60">
-        <v>5.271124340331027</v>
+        <v>5.174074648845008</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.432646949587694</v>
+        <v>5.206486503826661</v>
       </c>
       <c r="C61">
-        <v>5.473469382094716</v>
+        <v>5.390106487419</v>
       </c>
       <c r="D61">
-        <v>5.322782927811284</v>
+        <v>5.370216668647765</v>
       </c>
       <c r="E61">
-        <v>5.46621889326946</v>
+        <v>5.210842557974885</v>
       </c>
       <c r="F61">
-        <v>5.279855935679263</v>
+        <v>5.186876776268105</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.434903708962304</v>
+        <v>5.216042508917032</v>
       </c>
       <c r="C62">
-        <v>5.480930970671501</v>
+        <v>5.394881407120396</v>
       </c>
       <c r="D62">
-        <v>5.32899578232285</v>
+        <v>5.379260063548254</v>
       </c>
       <c r="E62">
-        <v>5.471629160836137</v>
+        <v>5.220815905802218</v>
       </c>
       <c r="F62">
-        <v>5.289426032652327</v>
+        <v>5.200072850245852</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.437082124903906</v>
+        <v>5.22601079939409</v>
       </c>
       <c r="C63">
-        <v>5.488333363798392</v>
+        <v>5.399595828786782</v>
       </c>
       <c r="D63">
-        <v>5.335505742188415</v>
+        <v>5.388440706308654</v>
       </c>
       <c r="E63">
-        <v>5.476943236632006</v>
+        <v>5.231129867752389</v>
       </c>
       <c r="F63">
-        <v>5.299870798382031</v>
+        <v>5.213648523898234</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.439188145062314</v>
+        <v>5.236394253280654</v>
       </c>
       <c r="C64">
-        <v>5.495676818118779</v>
+        <v>5.404250129328828</v>
       </c>
       <c r="D64">
-        <v>5.342326657609064</v>
+        <v>5.397757724948985</v>
       </c>
       <c r="E64">
-        <v>5.482163132259506</v>
+        <v>5.241782443612657</v>
       </c>
       <c r="F64">
-        <v>5.31121380554065</v>
+        <v>5.227588481891217</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.441227294222332</v>
+        <v>5.247195412710475</v>
       </c>
       <c r="C65">
-        <v>5.502961251444564</v>
+        <v>5.408844684052925</v>
       </c>
       <c r="D65">
-        <v>5.349469785300856</v>
+        <v>5.407210035524728</v>
       </c>
       <c r="E65">
-        <v>5.487290751606919</v>
+        <v>5.252771168011083</v>
       </c>
       <c r="F65">
-        <v>5.323465261903462</v>
+        <v>5.241876448587091</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.443204703350599</v>
+        <v>5.258416522486461</v>
       </c>
       <c r="C66">
-        <v>5.510186278067286</v>
+        <v>5.413379866757832</v>
       </c>
       <c r="D66">
-        <v>5.356943789295972</v>
+        <v>5.416796333724267</v>
       </c>
       <c r="E66">
-        <v>5.492327900312752</v>
+        <v>5.264093075833998</v>
       </c>
       <c r="F66">
-        <v>5.336621509306603</v>
+        <v>5.25649520324993</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.445125135741432</v>
+        <v>5.270059471544258</v>
       </c>
       <c r="C67">
-        <v>5.517351243057358</v>
+        <v>5.417856048121576</v>
       </c>
       <c r="D67">
-        <v>5.36475473554028</v>
+        <v>5.426515085501468</v>
       </c>
       <c r="E67">
-        <v>5.497276293339022</v>
+        <v>5.275744715129352</v>
       </c>
       <c r="F67">
-        <v>5.350664872271117</v>
+        <v>5.271426600399693</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.446993012947561</v>
+        <v>5.28212583487006</v>
       </c>
       <c r="C68">
-        <v>5.524455253630409</v>
+        <v>5.422273596958062</v>
       </c>
       <c r="D68">
-        <v>5.372906079806099</v>
+        <v>5.436364516228316</v>
       </c>
       <c r="E68">
-        <v>5.502137561164157</v>
+        <v>5.287722118093899</v>
       </c>
       <c r="F68">
-        <v>5.365563927795107</v>
+        <v>5.286651598250708</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.448812442116463</v>
+        <v>5.294616798719917</v>
       </c>
       <c r="C69">
-        <v>5.531497213225598</v>
+        <v>5.426632879822807</v>
       </c>
       <c r="D69">
-        <v>5.381398649909159</v>
+        <v>5.446342600460751</v>
       </c>
       <c r="E69">
-        <v>5.506913256142266</v>
+        <v>5.300020803305819</v>
       </c>
       <c r="F69">
-        <v>5.381274233529397</v>
+        <v>5.302150292077942</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.450587224378904</v>
+        <v>5.307533203787838</v>
       </c>
       <c r="C70">
-        <v>5.538475838704135</v>
+        <v>5.43093426120072</v>
       </c>
       <c r="D70">
-        <v>5.390230619471703</v>
+        <v>5.456447048337378</v>
       </c>
       <c r="E70">
-        <v>5.51160485862035</v>
+        <v>5.312635752119938</v>
       </c>
       <c r="F70">
-        <v>5.397739509568931</v>
+        <v>5.317901961857887</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.452320883744138</v>
+        <v>5.320875455652592</v>
       </c>
       <c r="C71">
-        <v>5.545389688489422</v>
+        <v>5.435178103401688</v>
       </c>
       <c r="D71">
-        <v>5.399397477564703</v>
+        <v>5.466675291389432</v>
       </c>
       <c r="E71">
-        <v>5.516213782207544</v>
+        <v>5.325561400730024</v>
       </c>
       <c r="F71">
-        <v>5.414893234347939</v>
+        <v>5.333885128374632</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.4540166941999</v>
+        <v>5.334643561749724</v>
       </c>
       <c r="C72">
-        <v>5.552237193709979</v>
+        <v>5.439364766248572</v>
       </c>
       <c r="D72">
-        <v>5.408891990302261</v>
+        <v>5.477024467512241</v>
       </c>
       <c r="E72">
-        <v>5.520741378366363</v>
+        <v>5.33879162151885</v>
       </c>
       <c r="F72">
-        <v>5.432660570699694</v>
+        <v>5.35007761604233</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.455677678714561</v>
+        <v>5.348837050861639</v>
       </c>
       <c r="C73">
-        <v>5.559016673789816</v>
+        <v>5.443494607520834</v>
       </c>
       <c r="D73">
-        <v>5.418704159422834</v>
+        <v>5.487491404209909</v>
       </c>
       <c r="E73">
-        <v>5.525188942232698</v>
+        <v>5.352319705258868</v>
       </c>
       <c r="F73">
-        <v>5.450960505534828</v>
+        <v>5.366456637099942</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.457306653385269</v>
+        <v>5.363454941158722</v>
       </c>
       <c r="C74">
-        <v>5.56572636305811</v>
+        <v>5.447567982872706</v>
       </c>
       <c r="D74">
-        <v>5.42882117644398</v>
+        <v>5.49807260031101</v>
       </c>
       <c r="E74">
-        <v>5.529557714505005</v>
+        <v>5.366138347067395</v>
       </c>
       <c r="F74">
-        <v>5.469708073764699</v>
+        <v>5.382998873608335</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.458906220796691</v>
+        <v>5.378495689089398</v>
       </c>
       <c r="C75">
-        <v>5.572364425002531</v>
+        <v>5.451585245835812</v>
       </c>
       <c r="D75">
-        <v>5.439227376386</v>
+        <v>5.508764205504491</v>
       </c>
       <c r="E75">
-        <v>5.533848888250415</v>
+        <v>5.380239619336094</v>
       </c>
       <c r="F75">
-        <v>5.488816526775508</v>
+        <v>5.399680569815448</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.460478796641588</v>
+        <v>5.393957137023131</v>
       </c>
       <c r="C76">
-        <v>5.578928967194583</v>
+        <v>5.455546747876947</v>
       </c>
       <c r="D76">
-        <v>5.449904195374625</v>
+        <v>5.519562005842343</v>
       </c>
       <c r="E76">
-        <v>5.538063609003497</v>
+        <v>5.394614961634357</v>
       </c>
       <c r="F76">
-        <v>5.508199348499227</v>
+        <v>5.416477635344586</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.462026609545664</v>
+        <v>5.409836454576664</v>
       </c>
       <c r="C77">
-        <v>5.585418057313886</v>
+        <v>5.459452838152077</v>
       </c>
       <c r="D77">
-        <v>5.460830135903286</v>
+        <v>5.530461384893719</v>
       </c>
       <c r="E77">
-        <v>5.542202980348382</v>
+        <v>5.409255145554243</v>
       </c>
       <c r="F77">
-        <v>5.527772013277246</v>
+        <v>5.433365754727143</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.463551723051099</v>
+        <v>5.426130053010893</v>
       </c>
       <c r="C78">
-        <v>5.591829734613985</v>
+        <v>5.463303863778451</v>
       </c>
       <c r="D78">
-        <v>5.471980751440279</v>
+        <v>5.541457307579096</v>
       </c>
       <c r="E78">
-        <v>5.546268065466717</v>
+        <v>5.424150267515201</v>
       </c>
       <c r="F78">
-        <v>5.547453436476088</v>
+        <v>5.450320499019152</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.465056041291772</v>
+        <v>5.442833494627947</v>
       </c>
       <c r="C79">
-        <v>5.59816202706962</v>
+        <v>5.467100169887325</v>
       </c>
       <c r="D79">
-        <v>5.483328658094665</v>
+        <v>5.552544296049925</v>
       </c>
       <c r="E79">
-        <v>5.550259889868865</v>
+        <v>5.439289707480253</v>
       </c>
       <c r="F79">
-        <v>5.567167114161543</v>
+        <v>5.467317437715322</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.466541325276264</v>
+        <v>5.459941409120197</v>
       </c>
       <c r="C80">
-        <v>5.604412960823441</v>
+        <v>5.470842099393812</v>
       </c>
       <c r="D80">
-        <v>5.494843592411812</v>
+        <v>5.56371640272554</v>
       </c>
       <c r="E80">
-        <v>5.554179445077391</v>
+        <v>5.454662123142266</v>
       </c>
       <c r="F80">
-        <v>5.586841901431486</v>
+        <v>5.484332250352991</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.468009198543933</v>
+        <v>5.477447352743997</v>
       </c>
       <c r="C81">
-        <v>5.610580572920957</v>
+        <v>5.474529993185877</v>
       </c>
       <c r="D81">
-        <v>5.506492541042284</v>
+        <v>5.574967170747298</v>
       </c>
       <c r="E81">
-        <v>5.558027689352071</v>
+        <v>5.470255405649695</v>
       </c>
       <c r="F81">
-        <v>5.60641251357666</v>
+        <v>5.501340831733046</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.469461157749411</v>
+        <v>5.495343684785433</v>
       </c>
       <c r="C82">
-        <v>5.616662918592896</v>
+        <v>5.47816419009701</v>
       </c>
       <c r="D82">
-        <v>5.518239954211454</v>
+        <v>5.586289602131242</v>
       </c>
       <c r="E82">
-        <v>5.56180555169067</v>
+        <v>5.486056672850085</v>
       </c>
       <c r="F82">
-        <v>5.625819771854231</v>
+        <v>5.51831939603779</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.470898594619225</v>
+        <v>5.513621436674225</v>
       </c>
       <c r="C83">
-        <v>5.622658079614292</v>
+        <v>5.481745026914511</v>
       </c>
       <c r="D83">
-        <v>5.530048079498186</v>
+        <v>5.597676130176956</v>
       </c>
       <c r="E83">
-        <v>5.565513931932895</v>
+        <v>5.502052227039283</v>
       </c>
       <c r="F83">
-        <v>5.645010628037419</v>
+        <v>5.535244572595333</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.472322795458715</v>
+        <v>5.532270124977956</v>
       </c>
       <c r="C84">
-        <v>5.628564171986609</v>
+        <v>5.48527283839566</v>
       </c>
       <c r="D84">
-        <v>5.541877433677024</v>
+        <v>5.609118585522096</v>
       </c>
       <c r="E84">
-        <v>5.56915370483493</v>
+        <v>5.518227543576575</v>
       </c>
       <c r="F84">
-        <v>5.663938026127603</v>
+        <v>5.552093495140872</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.473734924881742</v>
+        <v>5.551277571237129</v>
       </c>
       <c r="C85">
-        <v>5.634379352324357</v>
+        <v>5.488747957273773</v>
       </c>
       <c r="D85">
-        <v>5.553687419080137</v>
+        <v>5.620608159470825</v>
       </c>
       <c r="E85">
-        <v>5.572725718888581</v>
+        <v>5.53456723715581</v>
       </c>
       <c r="F85">
-        <v>5.682560643295934</v>
+        <v>5.568843877941684</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.475135279910309</v>
+        <v>5.570629721538301</v>
       </c>
       <c r="C86">
-        <v>5.640101513985634</v>
+        <v>5.492170714277235</v>
       </c>
       <c r="D86">
-        <v>5.565435925607213</v>
+        <v>5.632135369302007</v>
       </c>
       <c r="E86">
-        <v>5.576230507670815</v>
+        <v>5.55105504370394</v>
       </c>
       <c r="F86">
-        <v>5.700842256819985</v>
+        <v>5.585474083826534</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.476521287127785</v>
+        <v>5.590310405366854</v>
       </c>
       <c r="C87">
-        <v>5.645727720741639</v>
+        <v>5.495541438144625</v>
       </c>
       <c r="D87">
-        <v>5.577077476240361</v>
+        <v>5.643690027031541</v>
       </c>
       <c r="E87">
-        <v>5.579667615495292</v>
+        <v>5.567673799001481</v>
       </c>
       <c r="F87">
-        <v>5.718750876286727</v>
+        <v>5.601963183456472</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.477889925558483</v>
+        <v>5.610301104787859</v>
       </c>
       <c r="C88">
-        <v>5.651254892155399</v>
+        <v>5.498860455627471</v>
       </c>
       <c r="D88">
-        <v>5.588568243829652</v>
+        <v>5.655261212024538</v>
       </c>
       <c r="E88">
-        <v>5.583036314996826</v>
+        <v>5.584405425376398</v>
       </c>
       <c r="F88">
-        <v>5.736259157234836</v>
+        <v>5.618291005176627</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.479238261535955</v>
+        <v>5.630580728207762</v>
       </c>
       <c r="C89">
-        <v>5.656680150028963</v>
+        <v>5.502128091500408</v>
       </c>
       <c r="D89">
-        <v>5.599868045412142</v>
+        <v>5.666837248148104</v>
       </c>
       <c r="E89">
-        <v>5.58633593362284</v>
+        <v>5.601230914251515</v>
       </c>
       <c r="F89">
-        <v>5.7533442964392</v>
+        <v>5.634438174952441</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.480563580380776</v>
+        <v>5.651125342636326</v>
       </c>
       <c r="C90">
-        <v>5.662000720054705</v>
+        <v>5.505344668591579</v>
       </c>
       <c r="D90">
-        <v>5.610940708426591</v>
+        <v>5.678405688733663</v>
       </c>
       <c r="E90">
-        <v>5.589565858924228</v>
+        <v>5.618130320456307</v>
       </c>
       <c r="F90">
-        <v>5.76998747469732</v>
+        <v>5.65038614714789</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.481863379232768</v>
+        <v>5.671907924640211</v>
       </c>
       <c r="C91">
-        <v>5.667214073559647</v>
+        <v>5.50851050777646</v>
       </c>
       <c r="D91">
-        <v>5.621754291613795</v>
+        <v>5.68995331293728</v>
       </c>
       <c r="E91">
-        <v>5.592725519607357</v>
+        <v>5.635082761411562</v>
       </c>
       <c r="F91">
-        <v>5.786173510636515</v>
+        <v>5.666117227899835</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.483135358611342</v>
+        <v>5.692898122260292</v>
       </c>
       <c r="C92">
-        <v>5.672317881530957</v>
+        <v>5.511625927958627</v>
       </c>
       <c r="D92">
-        <v>5.63228114239945</v>
+        <v>5.701466135993821</v>
       </c>
       <c r="E92">
-        <v>5.595814390868076</v>
+        <v>5.652066426910335</v>
       </c>
       <c r="F92">
-        <v>5.801890283758486</v>
+        <v>5.681614590620607</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.48437739648702</v>
+        <v>5.714062047602543</v>
       </c>
       <c r="C93">
-        <v>5.677309961282144</v>
+        <v>5.514691246151415</v>
       </c>
       <c r="D93">
-        <v>5.642497792339183</v>
+        <v>5.712929437499152</v>
       </c>
       <c r="E93">
-        <v>5.598831999925898</v>
+        <v>5.669058595913921</v>
       </c>
       <c r="F93">
-        <v>5.817128375627216</v>
+        <v>5.696862284312215</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.485587571847262</v>
+        <v>5.735362104184864</v>
       </c>
       <c r="C94">
-        <v>5.682188274222572</v>
+        <v>5.517706777440496</v>
       </c>
       <c r="D94">
-        <v>5.652384731667965</v>
+        <v>5.724327809781323</v>
       </c>
       <c r="E94">
-        <v>5.601777916336821</v>
+        <v>5.686035664224088</v>
       </c>
       <c r="F94">
-        <v>5.831880770723152</v>
+        <v>5.711845236518928</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.486764048768821</v>
+        <v>5.756756864868607</v>
       </c>
       <c r="C95">
-        <v>5.686950935042657</v>
+        <v>5.520672834984844</v>
       </c>
       <c r="D95">
-        <v>5.661926116526997</v>
+        <v>5.735645228783036</v>
       </c>
       <c r="E95">
-        <v>5.604651748019466</v>
+        <v>5.702973187178825</v>
       </c>
       <c r="F95">
-        <v>5.846142560193212</v>
+        <v>5.726549248909813</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.487905170196442</v>
+        <v>5.778201020121562</v>
       </c>
       <c r="C96">
-        <v>5.691596204608927</v>
+        <v>5.523589730060309</v>
       </c>
       <c r="D96">
-        <v>5.671109432075459</v>
+        <v>5.7468651515167</v>
       </c>
       <c r="E96">
-        <v>5.607453146292594</v>
+        <v>5.719845938478123</v>
       </c>
       <c r="F96">
-        <v>5.85991061529463</v>
+        <v>5.740960993360327</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5.489009418602855</v>
+        <v>5.799645426010172</v>
       </c>
       <c r="C97">
-        <v>5.696122483863335</v>
+        <v>5.526457772055789</v>
       </c>
       <c r="D97">
-        <v>5.679925142682006</v>
+        <v>5.757970633072595</v>
       </c>
       <c r="E97">
-        <v>5.610181794928971</v>
+        <v>5.736627984794202</v>
       </c>
       <c r="F97">
-        <v>5.873183339810312</v>
+        <v>5.755067997778482</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5.4900753941849</v>
+        <v>5.821037267187479</v>
       </c>
       <c r="C98">
-        <v>5.700528320725311</v>
+        <v>5.529277268491391</v>
       </c>
       <c r="D98">
-        <v>5.688366353053</v>
+        <v>5.768944470472431</v>
       </c>
       <c r="E98">
-        <v>5.612837417103481</v>
+        <v>5.753292777886186</v>
       </c>
       <c r="F98">
-        <v>5.885960488030366</v>
+        <v>5.768858638785248</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5.491101860032841</v>
+        <v>5.84232034409351</v>
       </c>
       <c r="C99">
-        <v>5.704812373343463</v>
+        <v>5.532048525026613</v>
       </c>
       <c r="D99">
-        <v>5.696428480524904</v>
+        <v>5.779769354591688</v>
       </c>
       <c r="E99">
-        <v>5.615419766926649</v>
+        <v>5.769813265236948</v>
       </c>
       <c r="F99">
-        <v>5.898242945964898</v>
+        <v>5.782322122866809</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5.492087670212655</v>
+        <v>5.86343549420974</v>
       </c>
       <c r="C100">
-        <v>5.708973442221875</v>
+        <v>5.534771845461695</v>
       </c>
       <c r="D100">
-        <v>5.704108956411298</v>
+        <v>5.790428035459475</v>
       </c>
       <c r="E100">
-        <v>5.617928630889494</v>
+        <v>5.786162019281906</v>
       </c>
       <c r="F100">
-        <v>5.910032638641888</v>
+        <v>5.795448452051514</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5.493031804638435</v>
+        <v>5.884321150975252</v>
       </c>
       <c r="C101">
-        <v>5.713010421438073</v>
+        <v>5.53744753176593</v>
       </c>
       <c r="D101">
-        <v>5.711406958162881</v>
+        <v>5.800903489535607</v>
       </c>
       <c r="E101">
-        <v>5.620363828251716</v>
+        <v>5.802311384716481</v>
       </c>
       <c r="F101">
-        <v>5.921332372725654</v>
+        <v>5.808228416550481</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5.493933333686891</v>
+        <v>5.904914034380071</v>
       </c>
       <c r="C102">
-        <v>5.716922328483655</v>
+        <v>5.540075884097807</v>
       </c>
       <c r="D102">
-        <v>5.718323168227281</v>
+        <v>5.811179079012272</v>
       </c>
       <c r="E102">
-        <v>5.622725203987188</v>
+        <v>5.818233640874251</v>
       </c>
       <c r="F102">
-        <v>5.9321456761152</v>
+        <v>5.820653564628553</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5.494791421528885</v>
+        <v>5.925149955778869</v>
       </c>
       <c r="C103">
-        <v>5.720708278393033</v>
+        <v>5.542657200783696</v>
       </c>
       <c r="D103">
-        <v>5.72485955746676</v>
+        <v>5.821238695988083</v>
       </c>
       <c r="E103">
-        <v>5.625012636784534</v>
+        <v>5.833901177654235</v>
       </c>
       <c r="F103">
-        <v>5.942476699891876</v>
+        <v>5.832716183146641</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5.495605327379733</v>
+        <v>5.944964709251001</v>
       </c>
       <c r="C104">
-        <v>5.7243674876329</v>
+        <v>5.545191778354608</v>
       </c>
       <c r="D104">
-        <v>5.731019193618273</v>
+        <v>5.831066891664753</v>
       </c>
       <c r="E104">
-        <v>5.627226028162641</v>
+        <v>5.849286680569354</v>
       </c>
       <c r="F104">
-        <v>5.952330102654991</v>
+        <v>5.844409271437493</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5.49637439091452</v>
+        <v>5.964295013310334</v>
       </c>
       <c r="C105">
-        <v>5.727899274532663</v>
+        <v>5.547679911544019</v>
       </c>
       <c r="D105">
-        <v>5.736806074773423</v>
+        <v>5.840648982039243</v>
       </c>
       <c r="E105">
-        <v>5.629365310744789</v>
+        <v>5.864363320477611</v>
       </c>
       <c r="F105">
-        <v>5.961711003775148</v>
+        <v>5.855726517727107</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5.497098031393373</v>
+        <v>5.983079468154772</v>
       </c>
       <c r="C106">
-        <v>5.731303045393416</v>
+        <v>5.550121893313398</v>
       </c>
       <c r="D106">
-        <v>5.742224983261663</v>
+        <v>5.84997112862797</v>
       </c>
       <c r="E106">
-        <v>5.631430437125607</v>
+        <v>5.879104942607811</v>
       </c>
       <c r="F106">
-        <v>5.970624892914749</v>
+        <v>5.866662269232149</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5.49777574260395</v>
+        <v>6.001259482845883</v>
       </c>
       <c r="C107">
-        <v>5.734578300467811</v>
+        <v>5.552518014854476</v>
       </c>
       <c r="D107">
-        <v>5.74728135762673</v>
+        <v>5.859020396987381</v>
       </c>
       <c r="E107">
-        <v>5.633421387597669</v>
+        <v>5.893486250165136</v>
       </c>
       <c r="F107">
-        <v>5.979077561993956</v>
+        <v>5.87721150761835</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5.498407086686367</v>
+        <v>6.018780095472807</v>
       </c>
       <c r="C108">
-        <v>5.73772462209023</v>
+        <v>5.554868565580653</v>
       </c>
       <c r="D108">
-        <v>5.751981180422505</v>
+        <v>5.867784795627038</v>
       </c>
       <c r="E108">
-        <v>5.635338158493417</v>
+        <v>5.907482976451923</v>
       </c>
       <c r="F108">
-        <v>5.987075090296407</v>
+        <v>5.887369821727479</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5.498991713449918</v>
+        <v>6.035590712825913</v>
       </c>
       <c r="C109">
-        <v>5.740741672385162</v>
+        <v>5.557173833165417</v>
       </c>
       <c r="D109">
-        <v>5.75633087948121</v>
+        <v>5.876253293914777</v>
       </c>
       <c r="E109">
-        <v>5.63718077781026</v>
+        <v>5.921072041093472</v>
       </c>
       <c r="F109">
-        <v>5.994623761464968</v>
+        <v>5.897133380800484</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5.499529285754615</v>
+        <v>6.051645730040685</v>
       </c>
       <c r="C110">
-        <v>5.743629190844598</v>
+        <v>5.559434103548885</v>
       </c>
       <c r="D110">
-        <v>5.760337244215997</v>
+        <v>5.88441582585925</v>
       </c>
       <c r="E110">
-        <v>5.638949295657052</v>
+        <v>5.934231686716553</v>
       </c>
       <c r="F110">
-        <v>6.001730028136016</v>
+        <v>5.906498911621911</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5.500019583278547</v>
+        <v>6.066904971035217</v>
       </c>
       <c r="C111">
-        <v>5.746386987580396</v>
+        <v>5.56164966093199</v>
       </c>
       <c r="D111">
-        <v>5.764007351359406</v>
+        <v>5.892263279751874</v>
       </c>
       <c r="E111">
-        <v>5.640643759300538</v>
+        <v>5.946941593132504</v>
       </c>
       <c r="F111">
-        <v>6.008400474705611</v>
+        <v>5.915463670791919</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.500462427463201</v>
+        <v>6.081333964400906</v>
       </c>
       <c r="C112">
-        <v>5.749014943116919</v>
+        <v>5.563820787790156</v>
       </c>
       <c r="D112">
-        <v>5.767348500845976</v>
+        <v>5.899787477568889</v>
       </c>
       <c r="E112">
-        <v>5.642264265115472</v>
+        <v>5.959182967377369</v>
       </c>
       <c r="F112">
-        <v>6.014641788038857</v>
+        <v>5.92402541998058</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.500857647434659</v>
+        <v>6.094904081355977</v>
       </c>
       <c r="C113">
-        <v>5.75151300390667</v>
+        <v>5.565947764900398</v>
       </c>
       <c r="D113">
-        <v>5.770368159618184</v>
+        <v>5.906981146124221</v>
       </c>
       <c r="E113">
-        <v>5.643810924453219</v>
+        <v>5.97093860910199</v>
       </c>
       <c r="F113">
-        <v>6.020460720123774</v>
+        <v>5.93218240193163</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5.501205176991301</v>
+        <v>6.107592525748694</v>
       </c>
       <c r="C114">
-        <v>5.753881172780893</v>
+        <v>5.568030871336425</v>
       </c>
       <c r="D114">
-        <v>5.773073913166824</v>
+        <v>5.913837884197805</v>
       </c>
       <c r="E114">
-        <v>5.645283843068472</v>
+        <v>5.982192951825782</v>
       </c>
       <c r="F114">
-        <v>6.025864081529511</v>
+        <v>5.93993331525096</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.501504963489814</v>
+        <v>6.11938219032178</v>
       </c>
       <c r="C115">
-        <v>5.75611951659373</v>
+        <v>5.570070384483832</v>
       </c>
       <c r="D115">
-        <v>5.775473424933797</v>
+        <v>5.920352125923267</v>
       </c>
       <c r="E115">
-        <v>5.64668316103817</v>
+        <v>5.992932081413659</v>
       </c>
       <c r="F115">
-        <v>6.030858713313711</v>
+        <v>5.947277291821717</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5.50175698916186</v>
+        <v>6.130261410268572</v>
       </c>
       <c r="C116">
-        <v>5.758228161994333</v>
+        <v>5.57206658004889</v>
       </c>
       <c r="D116">
-        <v>5.777574397992761</v>
+        <v>5.926519097540059</v>
       </c>
       <c r="E116">
-        <v>5.648009038316915</v>
+        <v>6.003143733773728</v>
       </c>
       <c r="F116">
-        <v>6.035451467889691</v>
+        <v>5.954213874144023</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5.501961284914228</v>
+        <v>6.140223636005321</v>
       </c>
       <c r="C117">
-        <v>5.760207274611179</v>
+        <v>5.574019732070013</v>
       </c>
       <c r="D117">
-        <v>5.779384542251464</v>
+        <v>5.93233477528429</v>
       </c>
       <c r="E117">
-        <v>5.649261640925253</v>
+        <v>6.01281727419646</v>
       </c>
       <c r="F117">
-        <v>6.039649197903049</v>
+        <v>5.960742992199271</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5.502117919382658</v>
+        <v>6.149267047809392</v>
       </c>
       <c r="C118">
-        <v>5.762057079694528</v>
+        <v>5.575930112932013</v>
       </c>
       <c r="D118">
-        <v>5.780911551319973</v>
+        <v>5.937795843335028</v>
       </c>
       <c r="E118">
-        <v>5.650441145460535</v>
+        <v>6.021943660693952</v>
       </c>
       <c r="F118">
-        <v>6.043458736765992</v>
+        <v>5.966864943512769</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5.502226982990095</v>
+        <v>6.15739413038311</v>
       </c>
       <c r="C119">
-        <v>5.763777859309653</v>
+        <v>5.577797993369548</v>
       </c>
       <c r="D119">
-        <v>5.78216307197934</v>
+        <v>5.942899652280784</v>
       </c>
       <c r="E119">
-        <v>5.651547750326089</v>
+        <v>6.030515395639434</v>
       </c>
       <c r="F119">
-        <v>6.046886888036733</v>
+        <v>5.972580372054157</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5.502288599150452</v>
+        <v>6.164611229253148</v>
       </c>
       <c r="C120">
-        <v>5.76536992242315</v>
+        <v>5.579623642481796</v>
       </c>
       <c r="D120">
-        <v>5.783146695970763</v>
+        <v>5.947644177734491</v>
       </c>
       <c r="E120">
-        <v>5.652581663519884</v>
+        <v>6.038526464681304</v>
       </c>
       <c r="F120">
-        <v>6.049940417881679</v>
+        <v>5.977890247413605</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5.502302933490718</v>
+        <v>6.17092810282833</v>
       </c>
       <c r="C121">
-        <v>5.766833629926696</v>
+        <v>5.581407327737894</v>
       </c>
       <c r="D121">
-        <v>5.783869937580461</v>
+        <v>5.952027979498997</v>
       </c>
       <c r="E121">
-        <v>5.653543108128397</v>
+        <v>6.04597226948177</v>
       </c>
       <c r="F121">
-        <v>6.052626046378874</v>
+        <v>5.98279584666942</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5.502270163173924</v>
+        <v>6.176357482489416</v>
       </c>
       <c r="C122">
-        <v>5.768169391704048</v>
+        <v>5.583149314991037</v>
       </c>
       <c r="D122">
-        <v>5.784340216458888</v>
+        <v>5.956050161990282</v>
       </c>
       <c r="E122">
-        <v>5.654432314462169</v>
+        <v>6.052849553640624</v>
       </c>
       <c r="F122">
-        <v>6.054950438184853</v>
+        <v>5.987298735574619</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5.502190497029323</v>
+        <v>6.180914650828178</v>
       </c>
       <c r="C123">
-        <v>5.769377643082912</v>
+        <v>5.584849868490432</v>
       </c>
       <c r="D123">
-        <v>5.784564845780298</v>
+        <v>5.959710336449989</v>
       </c>
       <c r="E123">
-        <v>5.65524952446303</v>
+        <v>6.059156324857144</v>
       </c>
       <c r="F123">
-        <v>6.056920198562906</v>
+        <v>5.99140074980902</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5.502064168120142</v>
+        <v>6.184617044611187</v>
       </c>
       <c r="C124">
-        <v>5.770458861136286</v>
+        <v>5.586509250883725</v>
       </c>
       <c r="D124">
-        <v>5.784551025138081</v>
+        <v>5.963008584980735</v>
       </c>
       <c r="E124">
-        <v>5.655994998730208</v>
+        <v>6.064891779641086</v>
       </c>
       <c r="F124">
-        <v>6.058541866992554</v>
+        <v>5.99510397919182</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5.501891428185285</v>
+        <v>6.187483885726603</v>
       </c>
       <c r="C125">
-        <v>5.771413561807766</v>
+        <v>5.588127723224253</v>
       </c>
       <c r="D125">
-        <v>5.784305830277458</v>
+        <v>5.965945426329656</v>
       </c>
       <c r="E125">
-        <v>5.656669000264499</v>
+        <v>6.070056219099887</v>
       </c>
       <c r="F125">
-        <v>6.059821911890925</v>
+        <v>5.998410752681313</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5.501672551482724</v>
+        <v>6.189535845950819</v>
       </c>
       <c r="C126">
-        <v>5.772242286778068</v>
+        <v>5.589705544996957</v>
       </c>
       <c r="D126">
-        <v>5.783836205890222</v>
+        <v>5.968521783329429</v>
       </c>
       <c r="E126">
-        <v>5.657271803936107</v>
+        <v>6.074650969089475</v>
       </c>
       <c r="F126">
-        <v>6.060766726957755</v>
+        <v>6.001323615241502</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5.50140782879813</v>
+        <v>6.1907947409605</v>
       </c>
       <c r="C127">
-        <v>5.772945610662465</v>
+        <v>5.59124297411427</v>
       </c>
       <c r="D127">
-        <v>5.783148961360656</v>
+        <v>5.97073895170645</v>
       </c>
       <c r="E127">
-        <v>5.657803697009063</v>
+        <v>6.078678301549944</v>
       </c>
       <c r="F127">
-        <v>6.061382628463728</v>
+        <v>6.003845326704588</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5.501097567871544</v>
+        <v>6.191283253532474</v>
       </c>
       <c r="C128">
-        <v>5.773524139995184</v>
+        <v>5.59274026691996</v>
       </c>
       <c r="D128">
-        <v>5.782250765791362</v>
+        <v>5.972598570939823</v>
       </c>
       <c r="E128">
-        <v>5.658264975509255</v>
+        <v>6.082141358432624</v>
       </c>
       <c r="F128">
-        <v>6.061675851831516</v>
+        <v>6.005978827134829</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5.50074209319512</v>
+        <v>6.191024691534635</v>
       </c>
       <c r="C129">
-        <v>5.773978503175643</v>
+        <v>5.594197678217256</v>
       </c>
       <c r="D129">
-        <v>5.781148144597064</v>
+        <v>5.974102596628006</v>
       </c>
       <c r="E129">
-        <v>5.658655942881114</v>
+        <v>6.085044078048426</v>
       </c>
       <c r="F129">
-        <v>6.06165254966384</v>
+        <v>6.007727241794554</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5.500341739373669</v>
+        <v>6.190042766570708</v>
       </c>
       <c r="C130">
-        <v>5.774309355565975</v>
+        <v>5.595615461265641</v>
       </c>
       <c r="D130">
-        <v>5.77984747778557</v>
+        <v>5.975253274535214</v>
       </c>
       <c r="E130">
-        <v>5.658976911076176</v>
+        <v>6.08739112404922</v>
       </c>
       <c r="F130">
-        <v>6.061318790640441</v>
+        <v>6.009093859819616</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5.499896852534648</v>
+        <v>6.188361429829099</v>
       </c>
       <c r="C131">
-        <v>5.774517381201995</v>
+        <v>5.596993867789296</v>
       </c>
       <c r="D131">
-        <v>5.778354997240894</v>
+        <v>5.976053116206159</v>
       </c>
       <c r="E131">
-        <v>5.6592281987462</v>
+        <v>6.089187817330254</v>
       </c>
       <c r="F131">
-        <v>6.060680557589746</v>
+        <v>6.010082116725306</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5.499407787648153</v>
+        <v>6.186004702426597</v>
       </c>
       <c r="C132">
-        <v>5.774603279648184</v>
+        <v>5.598333147992794</v>
       </c>
       <c r="D132">
-        <v>5.776676784164324</v>
+        <v>5.976504876050758</v>
       </c>
       <c r="E132">
-        <v>5.659410133295663</v>
+        <v>6.090440071593366</v>
       </c>
       <c r="F132">
-        <v>6.059743746713004</v>
+        <v>6.010695599371816</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5.498874930645756</v>
+        <v>6.182996536109855</v>
       </c>
       <c r="C133">
-        <v>5.774567773349569</v>
+        <v>5.599633550567948</v>
       </c>
       <c r="D133">
-        <v>5.774818771191156</v>
+        <v>5.976611529812662</v>
       </c>
       <c r="E133">
-        <v>5.65952304841884</v>
+        <v>6.091154332674115</v>
       </c>
       <c r="F133">
-        <v>6.058514167451372</v>
+        <v>6.010938011056456</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5.498298648688233</v>
+        <v>6.179360696470137</v>
       </c>
       <c r="C134">
-        <v>5.774411610459604</v>
+        <v>5.600895322700902</v>
       </c>
       <c r="D134">
-        <v>5.772786734758943</v>
+        <v>5.976376254399509</v>
       </c>
       <c r="E134">
-        <v>5.659567285362877</v>
+        <v>6.091337521353404</v>
       </c>
       <c r="F134">
-        <v>6.056997539334374</v>
+        <v>6.010813186200769</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5.497679322604595</v>
+        <v>6.175120662451148</v>
       </c>
       <c r="C135">
-        <v>5.774135550073545</v>
+        <v>5.602118710082862</v>
       </c>
       <c r="D135">
-        <v>5.770586315343157</v>
+        <v>5.975802409994977</v>
       </c>
       <c r="E135">
-        <v>5.659543190098847</v>
+        <v>6.090996979637402</v>
       </c>
       <c r="F135">
-        <v>6.055199495904034</v>
+        <v>6.01032505568369</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5.497017336789087</v>
+        <v>6.170299546502448</v>
       </c>
       <c r="C136">
-        <v>5.773740370481373</v>
+        <v>5.60330395692177</v>
       </c>
       <c r="D136">
-        <v>5.768222990821127</v>
+        <v>5.974893519758456</v>
       </c>
       <c r="E136">
-        <v>5.659451114504277</v>
+        <v>6.090140420474655</v>
       </c>
       <c r="F136">
-        <v>6.053125576888972</v>
+        <v>6.009477656723364</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5.496313110061473</v>
+        <v>6.16492003116965</v>
       </c>
       <c r="C137">
-        <v>5.77322687127291</v>
+        <v>5.604451305947564</v>
       </c>
       <c r="D137">
-        <v>5.765702107263556</v>
+        <v>5.973653256098131</v>
       </c>
       <c r="E137">
-        <v>5.659291419474475</v>
+        <v>6.088775880872115</v>
       </c>
       <c r="F137">
-        <v>6.050781241561341</v>
+        <v>6.008275107370711</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5.495567048408331</v>
+        <v>6.15900431146942</v>
       </c>
       <c r="C138">
-        <v>5.772595861006154</v>
+        <v>5.605560998418843</v>
       </c>
       <c r="D138">
-        <v>5.763028855671575</v>
+        <v>5.972085421782409</v>
       </c>
       <c r="E138">
-        <v>5.659064467750584</v>
+        <v>6.086911678303878</v>
       </c>
       <c r="F138">
-        <v>6.048171853695735</v>
+        <v>6.00672160983079</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5.494779549522102</v>
+        <v>6.152574051459609</v>
       </c>
       <c r="C139">
-        <v>5.771848163626119</v>
+        <v>5.606633274141205</v>
       </c>
       <c r="D139">
-        <v>5.76020829235723</v>
+        <v>5.970193938213991</v>
       </c>
       <c r="E139">
-        <v>5.658770626390303</v>
+        <v>6.084556370267332</v>
       </c>
       <c r="F139">
-        <v>6.0453026942631</v>
+        <v>6.004821436213612</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5.493951020518344</v>
+        <v>6.145650350995975</v>
       </c>
       <c r="C140">
-        <v>5.770984619824163</v>
+        <v>5.607668371469321</v>
       </c>
       <c r="D140">
-        <v>5.75724532875136</v>
+        <v>5.967982833573148</v>
       </c>
       <c r="E140">
-        <v>5.658410266747424</v>
+        <v>6.081718717002843</v>
       </c>
       <c r="F140">
-        <v>6.042178956104134</v>
+        <v>6.002578919051308</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5.493081884606177</v>
+        <v>6.138253717999375</v>
       </c>
       <c r="C141">
-        <v>5.770006077889617</v>
+        <v>5.608666527309223</v>
       </c>
       <c r="D141">
-        <v>5.754144736151424</v>
+        <v>5.965456224744887</v>
       </c>
       <c r="E141">
-        <v>5.65798376354959</v>
+        <v>6.078407648806964</v>
       </c>
       <c r="F141">
-        <v>6.038805745306917</v>
+        <v>5.999998451851956</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5.492172579439702</v>
+        <v>6.130404054569075</v>
       </c>
       <c r="C142">
-        <v>5.76891339795973</v>
+        <v>5.609627977142904</v>
       </c>
       <c r="D142">
-        <v>5.750911148253545</v>
+        <v>5.962618313178188</v>
       </c>
       <c r="E142">
-        <v>5.657491508018339</v>
+        <v>6.074632228973444</v>
       </c>
       <c r="F142">
-        <v>6.035188083734278</v>
+        <v>5.997084469218428</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5.491223514540795</v>
+        <v>6.122120643210718</v>
       </c>
       <c r="C143">
-        <v>5.767707453662614</v>
+        <v>5.610552955026807</v>
       </c>
       <c r="D143">
-        <v>5.74754906778718</v>
+        <v>5.959473367298625</v>
       </c>
       <c r="E143">
-        <v>5.656933882349081</v>
+        <v>6.07040162862626</v>
       </c>
       <c r="F143">
-        <v>6.031330906770197</v>
+        <v>5.993841455646009</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5.490235112309563</v>
+        <v>6.113422140228886</v>
       </c>
       <c r="C144">
-        <v>5.766389124097857</v>
+        <v>5.61144169359775</v>
       </c>
       <c r="D144">
-        <v>5.744062864430097</v>
+        <v>5.956025714729173</v>
       </c>
       <c r="E144">
-        <v>5.656311272224576</v>
+        <v>6.065725097302966</v>
       </c>
       <c r="F144">
-        <v>6.02723906514536</v>
+        <v>5.990273922538355</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5.489207797770732</v>
+        <v>6.104326573944797</v>
       </c>
       <c r="C145">
-        <v>5.764959297367439</v>
+        <v>5.61229442408838</v>
       </c>
       <c r="D145">
-        <v>5.740456778780931</v>
+        <v>5.952279734333824</v>
       </c>
       <c r="E145">
-        <v>5.655624067605638</v>
+        <v>6.060611936542601</v>
       </c>
       <c r="F145">
-        <v>6.022917325840643</v>
+        <v>5.986386418563071</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5.488142013337853</v>
+        <v>6.09485134527276</v>
       </c>
       <c r="C146">
-        <v>5.763418873085857</v>
+        <v>5.613111376335136</v>
       </c>
       <c r="D146">
-        <v>5.736734926387939</v>
+        <v>5.948239843328396</v>
       </c>
       <c r="E146">
-        <v>5.654872660501538</v>
+        <v>6.055071487573663</v>
       </c>
       <c r="F146">
-        <v>6.01837037543176</v>
+        <v>5.982183509101257</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5.487038179154331</v>
+        <v>6.085013234002228</v>
       </c>
       <c r="C147">
-        <v>5.761768753839877</v>
+        <v>5.613892778782297</v>
       </c>
       <c r="D147">
-        <v>5.732901298805887</v>
+        <v>5.943910494247573</v>
       </c>
       <c r="E147">
-        <v>5.654057461844728</v>
+        <v>6.049113096158615</v>
       </c>
       <c r="F147">
-        <v>6.013602816745393</v>
+        <v>5.977669781724333</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5.485896722865744</v>
+        <v>6.07482840585319</v>
       </c>
       <c r="C148">
-        <v>5.760009849185333</v>
+        <v>5.61463885849131</v>
       </c>
       <c r="D148">
-        <v>5.728959768206844</v>
+        <v>5.939296163160452</v>
       </c>
       <c r="E148">
-        <v>5.65317886937365</v>
+        <v>6.04274610907409</v>
       </c>
       <c r="F148">
-        <v>6.008619173765115</v>
+        <v>5.972849836128436</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5.484718071069582</v>
+        <v>6.0643124220168</v>
       </c>
       <c r="C149">
-        <v>5.758143076748291</v>
+        <v>5.615349841154785</v>
       </c>
       <c r="D149">
-        <v>5.724914088631657</v>
+        <v>5.934401345131508</v>
       </c>
       <c r="E149">
-        <v>5.652237283233943</v>
+        <v>6.035979845039845</v>
       </c>
       <c r="F149">
-        <v>6.003423890377857</v>
+        <v>5.967728278898198</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5.483502658626805</v>
+        <v>6.053480250684601</v>
       </c>
       <c r="C150">
-        <v>5.756169356631021</v>
+        <v>5.616025951098522</v>
       </c>
       <c r="D150">
-        <v>5.7207678997102</v>
+        <v>5.929230547418549</v>
       </c>
       <c r="E150">
-        <v>5.651233107916814</v>
+        <v>6.02882358163642</v>
       </c>
       <c r="F150">
-        <v>5.998021332360028</v>
+        <v>5.962309723656509</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5.482250909870645</v>
+        <v>6.042346279658665</v>
       </c>
       <c r="C151">
-        <v>5.754089613308524</v>
+        <v>5.616667411284851</v>
       </c>
       <c r="D151">
-        <v>5.716524729127172</v>
+        <v>5.923788281519968</v>
       </c>
       <c r="E151">
-        <v>5.650166749405938</v>
+        <v>6.021286546989074</v>
       </c>
       <c r="F151">
-        <v>5.992415788367454</v>
+        <v>5.956598779256294</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5.480963248793228</v>
+        <v>6.030924330545196</v>
       </c>
       <c r="C152">
-        <v>5.751904777842279</v>
+        <v>5.617274443339118</v>
       </c>
       <c r="D152">
-        <v>5.712187995632269</v>
+        <v>5.918079060443402</v>
       </c>
       <c r="E152">
-        <v>5.64903862689572</v>
+        <v>6.013377897982577</v>
       </c>
       <c r="F152">
-        <v>5.986611470748</v>
+        <v>5.950600055548871</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5.479640097787255</v>
+        <v>6.019227674044114</v>
       </c>
       <c r="C153">
-        <v>5.749615782327476</v>
+        <v>5.617847267544905</v>
       </c>
       <c r="D153">
-        <v>5.70776101168058</v>
+        <v>5.912107390971648</v>
       </c>
       <c r="E153">
-        <v>5.647849150787749</v>
+        <v>6.005106718115341</v>
       </c>
       <c r="F153">
-        <v>5.980612516946414</v>
+        <v>5.944318148858445</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5.47828188032317</v>
+        <v>6.007269045717025</v>
       </c>
       <c r="C154">
-        <v>5.747223561418675</v>
+        <v>5.618386102856091</v>
       </c>
       <c r="D154">
-        <v>5.70324698634737</v>
+        <v>5.905877770377958</v>
       </c>
       <c r="E154">
-        <v>5.64659873277752</v>
+        <v>5.996482002065243</v>
       </c>
       <c r="F154">
-        <v>5.974422990306629</v>
+        <v>5.937757649813322</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5.476889016404174</v>
+        <v>5.995060659318842</v>
       </c>
       <c r="C155">
-        <v>5.744729054092575</v>
+        <v>5.618891166897721</v>
       </c>
       <c r="D155">
-        <v>5.69864902810069</v>
+        <v>5.899394682072178</v>
       </c>
       <c r="E155">
-        <v>5.645287787796255</v>
+        <v>5.987512647476458</v>
       </c>
       <c r="F155">
-        <v>5.968046881552434</v>
+        <v>5.930923129556253</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5.475461919857533</v>
+        <v>5.982614224042442</v>
       </c>
       <c r="C156">
-        <v>5.742133199844607</v>
+        <v>5.619362675959665</v>
       </c>
       <c r="D156">
-        <v>5.693970147626322</v>
+        <v>5.892662589972963</v>
       </c>
       <c r="E156">
-        <v>5.643916731858035</v>
+        <v>5.978207449818695</v>
       </c>
       <c r="F156">
-        <v>5.96148810948644</v>
+        <v>5.923819144711472</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5.47400100238039</v>
+        <v>5.969940961413172</v>
       </c>
       <c r="C157">
-        <v>5.739436939086829</v>
+        <v>5.619800845060812</v>
       </c>
       <c r="D157">
-        <v>5.689213258602902</v>
+        <v>5.885685937121386</v>
       </c>
       <c r="E157">
-        <v>5.642485986902373</v>
+        <v>5.968575090455348</v>
       </c>
       <c r="F157">
-        <v>5.954750522730791</v>
+        <v>5.916450230702101</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5.472506675848103</v>
+        <v>5.957051624143124</v>
       </c>
       <c r="C158">
-        <v>5.736641214587781</v>
+        <v>5.620205887909441</v>
       </c>
       <c r="D158">
-        <v>5.684381183212009</v>
+        <v>5.878469140219272</v>
       </c>
       <c r="E158">
-        <v>5.640995971603154</v>
+        <v>5.958624135002084</v>
       </c>
       <c r="F158">
-        <v>5.947837900063628</v>
+        <v>5.908820899202931</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5.470979356344914</v>
+        <v>5.943956509193918</v>
       </c>
       <c r="C159">
-        <v>5.733746968934773</v>
+        <v>5.620578016925078</v>
       </c>
       <c r="D159">
-        <v>5.679476653996101</v>
+        <v>5.871016587722298</v>
       </c>
       <c r="E159">
-        <v>5.639447105177676</v>
+        <v>5.94836302545264</v>
       </c>
       <c r="F159">
-        <v>5.940753951899965</v>
+        <v>5.900935638484611</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5.469419443364908</v>
+        <v>5.930665477142029</v>
       </c>
       <c r="C160">
-        <v>5.730755144267973</v>
+        <v>5.620917443231215</v>
       </c>
       <c r="D160">
-        <v>5.674502315627596</v>
+        <v>5.863332636886511</v>
       </c>
       <c r="E160">
-        <v>5.637839808381806</v>
+        <v>5.937800075059912</v>
       </c>
       <c r="F160">
-        <v>5.933502321309168</v>
+        <v>5.892798906441667</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5.467827337566542</v>
+        <v>5.91718796567224</v>
       </c>
       <c r="C161">
-        <v>5.727666683607451</v>
+        <v>5.621224376648056</v>
       </c>
       <c r="D161">
-        <v>5.669460728106777</v>
+        <v>5.855421610420163</v>
       </c>
       <c r="E161">
-        <v>5.636174502445514</v>
+        <v>5.926943467169342</v>
       </c>
       <c r="F161">
-        <v>5.926086585103666</v>
+        <v>5.884415134546301</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5.466203436166524</v>
+        <v>5.903533008002496</v>
       </c>
       <c r="C162">
-        <v>5.72448252897102</v>
+        <v>5.621499025783026</v>
       </c>
       <c r="D162">
-        <v>5.664354370290871</v>
+        <v>5.847287796325388</v>
       </c>
       <c r="E162">
-        <v>5.634451611516708</v>
+        <v>5.915801248070545</v>
       </c>
       <c r="F162">
-        <v>5.918510254853132</v>
+        <v>5.875788719169244</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5.464548145666162</v>
+        <v>5.889709241195464</v>
       </c>
       <c r="C163">
-        <v>5.721203620741806</v>
+        <v>5.621741597963396</v>
       </c>
       <c r="D163">
-        <v>5.659185640452773</v>
+        <v>5.838935440757427</v>
       </c>
       <c r="E163">
-        <v>5.63267155791297</v>
+        <v>5.904381327668961</v>
       </c>
       <c r="F163">
-        <v>5.910776778021807</v>
+        <v>5.866924026907435</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5.462861853525604</v>
+        <v>5.875724928816601</v>
       </c>
       <c r="C164">
-        <v>5.717830899051177</v>
+        <v>5.621952299265947</v>
       </c>
       <c r="D164">
-        <v>5.653956856252724</v>
+        <v>5.83036875303766</v>
       </c>
       <c r="E164">
-        <v>5.630834763843592</v>
+        <v>5.892691475469092</v>
       </c>
       <c r="F164">
-        <v>5.902889540282625</v>
+        <v>5.85782538622614</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5.461144949011658</v>
+        <v>5.861587973376475</v>
       </c>
       <c r="C165">
-        <v>5.714365302301821</v>
+        <v>5.622131334507442</v>
       </c>
       <c r="D165">
-        <v>5.648670265190197</v>
+        <v>5.821591896570287</v>
       </c>
       <c r="E165">
-        <v>5.628941652001432</v>
+        <v>5.880739318429088</v>
       </c>
       <c r="F165">
-        <v>5.89485186465975</v>
+        <v>5.848497093480599</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5.459397817707719</v>
+        <v>5.847305930650055</v>
       </c>
       <c r="C166">
-        <v>5.710807766229896</v>
+        <v>5.622278907246344</v>
       </c>
       <c r="D166">
-        <v>5.643328040999031</v>
+        <v>5.812608988961766</v>
       </c>
       <c r="E166">
-        <v>5.626992644906609</v>
+        <v>5.86853234148317</v>
       </c>
       <c r="F166">
-        <v>5.886667013541384</v>
+        <v>5.838943405105079</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5.457620843283926</v>
+        <v>5.832886022459293</v>
       </c>
       <c r="C167">
-        <v>5.707159225335441</v>
+        <v>5.622395219858761</v>
       </c>
       <c r="D167">
-        <v>5.6379322801525</v>
+        <v>5.803424111180492</v>
       </c>
       <c r="E167">
-        <v>5.624988168301762</v>
+        <v>5.85607788529343</v>
       </c>
       <c r="F167">
-        <v>5.878338189675172</v>
+        <v>5.82916853509904</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5.455814404325706</v>
+        <v>5.818335153329842</v>
       </c>
       <c r="C168">
-        <v>5.70342061178925</v>
+        <v>5.622480473479826</v>
       </c>
       <c r="D168">
-        <v>5.632485017979646</v>
+        <v>5.794041286617587</v>
       </c>
       <c r="E168">
-        <v>5.622928644919571</v>
+        <v>5.843383147083851</v>
       </c>
       <c r="F168">
-        <v>5.869868536628591</v>
+        <v>5.819176659946509</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5.453978875349923</v>
+        <v>5.803659920179471</v>
       </c>
       <c r="C169">
-        <v>5.699592854273909</v>
+        <v>5.622534868030915</v>
       </c>
       <c r="D169">
-        <v>5.626988221806068</v>
+        <v>5.784464498690004</v>
       </c>
       <c r="E169">
-        <v>5.620814496639398</v>
+        <v>5.830455174304881</v>
       </c>
       <c r="F169">
-        <v>5.861261141314586</v>
+        <v>5.808971921953568</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5.45211462723202</v>
+        <v>5.788866628055805</v>
       </c>
       <c r="C170">
-        <v>5.695676879331395</v>
+        <v>5.622558602212641</v>
       </c>
       <c r="D170">
-        <v>5.621443789606482</v>
+        <v>5.774697680582997</v>
       </c>
       <c r="E170">
-        <v>5.618646145573192</v>
+        <v>5.817300878028759</v>
       </c>
       <c r="F170">
-        <v>5.852519033970022</v>
+        <v>5.798558405909866</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5.450222026368759</v>
+        <v>5.77396129985519</v>
       </c>
       <c r="C171">
-        <v>5.691673610622042</v>
+        <v>5.622551873514405</v>
       </c>
       <c r="D171">
-        <v>5.61585355969509</v>
+        <v>5.764744713471394</v>
       </c>
       <c r="E171">
-        <v>5.61642401320747</v>
+        <v>5.803927012200957</v>
       </c>
       <c r="F171">
-        <v>5.843645187910477</v>
+        <v>5.787940154145494</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5.448301434779666</v>
+        <v>5.758949689916919</v>
       </c>
       <c r="C172">
-        <v>5.687583967698889</v>
+        <v>5.622514878263566</v>
       </c>
       <c r="D172">
-        <v>5.610219311280099</v>
+        <v>5.754609433201818</v>
       </c>
       <c r="E172">
-        <v>5.614148524277128</v>
+        <v>5.790340192902723</v>
       </c>
       <c r="F172">
-        <v>5.834642522358708</v>
+        <v>5.777121192655247</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5.446353210662385</v>
+        <v>5.743837295003708</v>
       </c>
       <c r="C173">
-        <v>5.683408867177031</v>
+        <v>5.622447811589145</v>
       </c>
       <c r="D173">
-        <v>5.604542762985836</v>
+        <v>5.744295620460645</v>
       </c>
       <c r="E173">
-        <v>5.611820099927917</v>
+        <v>5.776546898888635</v>
       </c>
       <c r="F173">
-        <v>5.825513903769732</v>
+        <v>5.766105473267965</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5.444377707488063</v>
+        <v>5.728629364277433</v>
       </c>
       <c r="C174">
-        <v>5.679149222267966</v>
+        <v>5.62235086744256</v>
       </c>
       <c r="D174">
-        <v>5.598825576046396</v>
+        <v>5.733807007143929</v>
       </c>
       <c r="E174">
-        <v>5.609439159890732</v>
+        <v>5.762553452818995</v>
       </c>
       <c r="F174">
-        <v>5.816262145449201</v>
+        <v>5.754896908463901</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5.442375275361397</v>
+        <v>5.713330912452073</v>
       </c>
       <c r="C175">
-        <v>5.67480594157798</v>
+        <v>5.62222423859163</v>
       </c>
       <c r="D175">
-        <v>5.593069359376544</v>
+        <v>5.723147273023569</v>
       </c>
       <c r="E175">
-        <v>5.607006123986529</v>
+        <v>5.748366053176818</v>
       </c>
       <c r="F175">
-        <v>5.806890005797549</v>
+        <v>5.743499374459804</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5.44034626467429</v>
+        <v>5.697946726127035</v>
       </c>
       <c r="C176">
-        <v>5.670379930114557</v>
+        <v>5.62206811663484</v>
       </c>
       <c r="D176">
-        <v>5.58727566742767</v>
+        <v>5.712320044225954</v>
       </c>
       <c r="E176">
-        <v>5.604521411146276</v>
+        <v>5.733990746519961</v>
       </c>
       <c r="F176">
-        <v>5.797400195850698</v>
+        <v>5.731916704905686</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5.438291015035163</v>
+        <v>5.682481378511281</v>
       </c>
       <c r="C177">
-        <v>5.665872089027055</v>
+        <v>5.621882692035759</v>
       </c>
       <c r="D177">
-        <v>5.581445998864871</v>
+        <v>5.70132889667442</v>
       </c>
       <c r="E177">
-        <v>5.601985442190744</v>
+        <v>5.719433446118511</v>
       </c>
       <c r="F177">
-        <v>5.787795375568434</v>
+        <v>5.720152674905389</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5.436209864146826</v>
+        <v>5.666939233540477</v>
       </c>
       <c r="C178">
-        <v>5.661283314419681</v>
+        <v>5.621668154098634</v>
       </c>
       <c r="D178">
-        <v>5.575581808397897</v>
+        <v>5.690177350779305</v>
       </c>
       <c r="E178">
-        <v>5.59939863501074</v>
+        <v>5.704699931997911</v>
       </c>
       <c r="F178">
-        <v>5.778078155491796</v>
+        <v>5.708211018369442</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5.43410314538245</v>
+        <v>5.651324459490798</v>
       </c>
       <c r="C179">
-        <v>5.656614498265478</v>
+        <v>5.621424690985643</v>
       </c>
       <c r="D179">
-        <v>5.569684501321841</v>
+        <v>5.678868876412718</v>
       </c>
       <c r="E179">
-        <v>5.596761405898667</v>
+        <v>5.689795845143596</v>
       </c>
       <c r="F179">
-        <v>5.76825109785827</v>
+        <v>5.696095432960506</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5.431971190839803</v>
+        <v>5.635641031364433</v>
       </c>
       <c r="C180">
-        <v>5.651866528304232</v>
+        <v>5.6211524897088</v>
       </c>
       <c r="D180">
-        <v>5.563755430513833</v>
+        <v>5.667406890966975</v>
       </c>
       <c r="E180">
-        <v>5.59407417079868</v>
+        <v>5.674726693930285</v>
       </c>
       <c r="F180">
-        <v>5.758316718304375</v>
+        <v>5.68380955801312</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5.429814325200882</v>
+        <v>5.619892750874421</v>
       </c>
       <c r="C181">
-        <v>5.647040286850184</v>
+        <v>5.620851736149667</v>
       </c>
       <c r="D181">
-        <v>5.557795909952341</v>
+        <v>5.65579475711302</v>
       </c>
       <c r="E181">
-        <v>5.591337344550825</v>
+        <v>5.659497854486514</v>
       </c>
       <c r="F181">
-        <v>5.748277486024973</v>
+        <v>5.671356989553094</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>5.427632869905243</v>
+        <v>5.604083243602141</v>
       </c>
       <c r="C182">
-        <v>5.642136651652291</v>
+        <v>5.620522615087103</v>
       </c>
       <c r="D182">
-        <v>5.551807208599164</v>
+        <v>5.644035788111657</v>
       </c>
       <c r="E182">
-        <v>5.588551342545609</v>
+        <v>5.644114574473242</v>
       </c>
       <c r="F182">
-        <v>5.738135822359163</v>
+        <v>5.658741278059082</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>5.425427142271623</v>
+        <v>5.58821596485626</v>
       </c>
       <c r="C183">
-        <v>5.637156495904781</v>
+        <v>5.620165310176025</v>
       </c>
       <c r="D183">
-        <v>5.545790549696902</v>
+        <v>5.632133242200653</v>
       </c>
       <c r="E183">
-        <v>5.585716577871916</v>
+        <v>5.62858197777606</v>
       </c>
       <c r="F183">
-        <v>5.727894106273713</v>
+        <v>5.645965925808339</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>5.423197457793087</v>
+        <v>5.572294230065792</v>
       </c>
       <c r="C184">
-        <v>5.632100687080883</v>
+        <v>5.619780003963786</v>
       </c>
       <c r="D184">
-        <v>5.539747117187089</v>
+        <v>5.620090326735995</v>
       </c>
       <c r="E184">
-        <v>5.582833461959645</v>
+        <v>5.612905058284562</v>
       </c>
       <c r="F184">
-        <v>5.717554672409409</v>
+        <v>5.633034386742841</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>5.420944127035121</v>
+        <v>5.556321188791371</v>
       </c>
       <c r="C185">
-        <v>5.626970087878313</v>
+        <v>5.619366877877588</v>
       </c>
       <c r="D185">
-        <v>5.5336780571284</v>
+        <v>5.607910197477233</v>
       </c>
       <c r="E185">
-        <v>5.579902405422565</v>
+        <v>5.59708869090617</v>
       </c>
       <c r="F185">
-        <v>5.707119811644309</v>
+        <v>5.619950070283991</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>5.418667455570379</v>
+        <v>5.540299846194287</v>
       </c>
       <c r="C186">
-        <v>5.621765556490806</v>
+        <v>5.618926112252384</v>
       </c>
       <c r="D186">
-        <v>5.527584475097857</v>
+        <v>5.595595957433962</v>
       </c>
       <c r="E186">
-        <v>5.576923817558156</v>
+        <v>5.581137627990531</v>
       </c>
       <c r="F186">
-        <v>5.696591771152185</v>
+        <v>5.606716345851473</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>5.416367745769002</v>
+        <v>5.524233088775347</v>
       </c>
       <c r="C187">
-        <v>5.616487944522315</v>
+        <v>5.618457886353321</v>
       </c>
       <c r="D187">
-        <v>5.521467438111442</v>
+        <v>5.583150659655641</v>
       </c>
       <c r="E187">
-        <v>5.573898107026001</v>
+        <v>5.565056503971245</v>
       </c>
       <c r="F187">
-        <v>5.685972758774303</v>
+        <v>5.593336526730873</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5.414045296081212</v>
+        <v>5.508123649624815</v>
       </c>
       <c r="C188">
-        <v>5.611138098334703</v>
+        <v>5.617962378354579</v>
       </c>
       <c r="D188">
-        <v>5.515327980770335</v>
+        <v>5.570577304919895</v>
       </c>
       <c r="E188">
-        <v>5.570825680623353</v>
+        <v>5.548849838538491</v>
       </c>
       <c r="F188">
-        <v>5.675264940953458</v>
+        <v>5.579813882702495</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>5.411700401041774</v>
+        <v>5.491974146400431</v>
       </c>
       <c r="C189">
-        <v>5.605716858524492</v>
+        <v>5.617439765355937</v>
       </c>
       <c r="D189">
-        <v>5.509167101652271</v>
+        <v>5.557878843918465</v>
       </c>
       <c r="E189">
-        <v>5.567706943467276</v>
+        <v>5.532522036264814</v>
       </c>
       <c r="F189">
-        <v>5.664470442353848</v>
+        <v>5.566151643368694</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>5.409333351484144</v>
+        <v>5.475787084863796</v>
       </c>
       <c r="C190">
-        <v>5.600225062142429</v>
+        <v>5.616890223367474</v>
       </c>
       <c r="D190">
-        <v>5.502985762326305</v>
+        <v>5.545058177362525</v>
       </c>
       <c r="E190">
-        <v>5.564542299373278</v>
+        <v>5.51607739087018</v>
       </c>
       <c r="F190">
-        <v>5.653591349425859</v>
+        <v>5.55235298712673</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5.406944434372504</v>
+        <v>5.459564837506574</v>
       </c>
       <c r="C191">
-        <v>5.594663539084041</v>
+        <v>5.616313927344535</v>
       </c>
       <c r="D191">
-        <v>5.496784896419454</v>
+        <v>5.532118155252174</v>
       </c>
       <c r="E191">
-        <v>5.561332150597774</v>
+        <v>5.499520086652369</v>
       </c>
       <c r="F191">
-        <v>5.642629710470667</v>
+        <v>5.538421047805999</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5.40453393295545</v>
+        <v>5.443309683254253</v>
       </c>
       <c r="C192">
-        <v>5.589033112548301</v>
+        <v>5.61571105120167</v>
       </c>
       <c r="D192">
-        <v>5.490565405305033</v>
+        <v>5.519061579489293</v>
       </c>
       <c r="E192">
-        <v>5.558076899488365</v>
+        <v>5.482854200919543</v>
       </c>
       <c r="F192">
-        <v>5.631587535443854</v>
+        <v>5.524358916659202</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>5.402102127445518</v>
+        <v>5.427023795361797</v>
       </c>
       <c r="C193">
-        <v>5.58333460023442</v>
+        <v>5.615081767795503</v>
       </c>
       <c r="D193">
-        <v>5.484328155953826</v>
+        <v>5.505891201939783</v>
       </c>
       <c r="E193">
-        <v>5.554776945825838</v>
+        <v>5.466083706421423</v>
       </c>
       <c r="F193">
-        <v>5.620466795416094</v>
+        <v>5.510169641707072</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>5.399649293478244</v>
+        <v>5.410709240486068</v>
       </c>
       <c r="C194">
-        <v>5.577568814275442</v>
+        <v>5.614426248940227</v>
       </c>
       <c r="D194">
-        <v>5.478073990193378</v>
+        <v>5.492609726551259</v>
       </c>
       <c r="E194">
-        <v>5.551432687183756</v>
+        <v>5.449212473272514</v>
       </c>
       <c r="F194">
-        <v>5.6092694271423</v>
+        <v>5.495856223273389</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5.397175703340366</v>
+        <v>5.394368001015597</v>
       </c>
       <c r="C195">
-        <v>5.571736565798997</v>
+        <v>5.613744665393411</v>
       </c>
       <c r="D195">
-        <v>5.471803720863908</v>
+        <v>5.479219809780485</v>
       </c>
       <c r="E195">
-        <v>5.54804452000409</v>
+        <v>5.4322442714238</v>
       </c>
       <c r="F195">
-        <v>5.597997330984678</v>
+        <v>5.481421619169677</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5.394681625685579</v>
+        <v>5.378001966715334</v>
       </c>
       <c r="C196">
-        <v>5.565838653196796</v>
+        <v>5.61303718689282</v>
       </c>
       <c r="D196">
-        <v>5.465518131138929</v>
+        <v>5.465724060020147</v>
       </c>
       <c r="E196">
-        <v>5.544612839065074</v>
+        <v>5.415182772853942</v>
       </c>
       <c r="F196">
-        <v>5.586652371071393</v>
+        <v>5.466868746034208</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5.392167325574228</v>
+        <v>5.361612931087122</v>
       </c>
       <c r="C197">
-        <v>5.559875871184877</v>
+        <v>5.612303982161547</v>
       </c>
       <c r="D197">
-        <v>5.459217978404119</v>
+        <v>5.452125039729808</v>
       </c>
       <c r="E197">
-        <v>5.541138038647937</v>
+        <v>5.398031553781186</v>
       </c>
       <c r="F197">
-        <v>5.575236377064344</v>
+        <v>5.452200474839307</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>5.389633064477901</v>
+        <v>5.345202619853177</v>
       </c>
       <c r="C198">
-        <v>5.553849008314123</v>
+        <v>5.611545218898349</v>
       </c>
       <c r="D198">
-        <v>5.45290399595398</v>
+        <v>5.43842526452744</v>
       </c>
       <c r="E198">
-        <v>5.537620510701915</v>
+        <v>5.380794096771202</v>
       </c>
       <c r="F198">
-        <v>5.563751145821681</v>
+        <v>5.437419634577338</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>5.387079100318443</v>
+        <v>5.328772674702227</v>
       </c>
       <c r="C199">
-        <v>5.547758849119417</v>
+        <v>5.610761063790791</v>
       </c>
       <c r="D199">
-        <v>5.446576890843587</v>
+        <v>5.424627204593658</v>
       </c>
       <c r="E199">
-        <v>5.534060644986915</v>
+        <v>5.363473793243887</v>
       </c>
       <c r="F199">
-        <v>5.552198440620885</v>
+        <v>5.422529013572454</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>5.384505687495464</v>
+        <v>5.312324657369383</v>
       </c>
       <c r="C200">
-        <v>5.541606172153523</v>
+        <v>5.609951682501388</v>
       </c>
       <c r="D200">
-        <v>5.440237344805545</v>
+        <v>5.410733285250236</v>
       </c>
       <c r="E200">
-        <v>5.53045882991756</v>
+        <v>5.346073945101282</v>
       </c>
       <c r="F200">
-        <v>5.540579989966008</v>
+        <v>5.407531357872406</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>5.381913078117217</v>
+        <v>5.295860068506308</v>
       </c>
       <c r="C201">
-        <v>5.535391747537604</v>
+        <v>5.609117239706633</v>
       </c>
       <c r="D201">
-        <v>5.433886019110928</v>
+        <v>5.396745886985229</v>
       </c>
       <c r="E201">
-        <v>5.52681545216206</v>
+        <v>5.328597767337834</v>
       </c>
       <c r="F201">
-        <v>5.528897492740925</v>
+        <v>5.392429371413437</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5.379301520636034</v>
+        <v>5.279380333878017</v>
       </c>
       <c r="C202">
-        <v>5.529116340423366</v>
+        <v>5.608257899095088</v>
       </c>
       <c r="D202">
-        <v>5.427523551763307</v>
+        <v>5.382667347117081</v>
       </c>
       <c r="E202">
-        <v>5.523130897435522</v>
+        <v>5.311048390119967</v>
       </c>
       <c r="F202">
-        <v>5.517152615750991</v>
+        <v>5.377225718003326</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5.376671259011347</v>
+        <v>5.262886812803568</v>
       </c>
       <c r="C203">
-        <v>5.522780709815202</v>
+        <v>5.607373823363225</v>
       </c>
       <c r="D203">
-        <v>5.421150556560118</v>
+        <v>5.368499959055988</v>
       </c>
       <c r="E203">
-        <v>5.519405549279696</v>
+        <v>5.293428860097143</v>
       </c>
       <c r="F203">
-        <v>5.505346994334645</v>
+        <v>5.361923022336347</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>5.37402253440248</v>
+        <v>5.246380809822866</v>
       </c>
       <c r="C204">
-        <v>5.516385610984318</v>
+        <v>5.60646517422684</v>
       </c>
       <c r="D204">
-        <v>5.414767629635157</v>
+        <v>5.35424597345071</v>
       </c>
       <c r="E204">
-        <v>5.515639789079357</v>
+        <v>5.275742143834081</v>
       </c>
       <c r="F204">
-        <v>5.493482232856893</v>
+        <v>5.346523867570458</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5.371355584621336</v>
+        <v>5.229863563619907</v>
       </c>
       <c r="C205">
-        <v>5.509931790394432</v>
+        <v>5.605532112402817</v>
       </c>
       <c r="D205">
-        <v>5.40837534629374</v>
+        <v>5.339907598663864</v>
       </c>
       <c r="E205">
-        <v>5.511833996695159</v>
+        <v>5.257991128366993</v>
       </c>
       <c r="F205">
-        <v>5.481559907421496</v>
+        <v>5.33103079794143</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5.368670644153923</v>
+        <v>5.213336258975115</v>
       </c>
       <c r="C206">
-        <v>5.503419989271349</v>
+        <v>5.604574797658005</v>
       </c>
       <c r="D206">
-        <v>5.401974259710884</v>
+        <v>5.325487002796004</v>
       </c>
       <c r="E206">
-        <v>5.507988550171128</v>
+        <v>5.24017862398687</v>
       </c>
       <c r="F206">
-        <v>5.469581564575225</v>
+        <v>5.31544632043076</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5.365967944189705</v>
+        <v>5.1968000303813</v>
       </c>
       <c r="C207">
-        <v>5.496850942773427</v>
+        <v>5.603593388798177</v>
       </c>
       <c r="D207">
-        <v>5.395564906688036</v>
+        <v>5.310986311359381</v>
       </c>
       <c r="E207">
-        <v>5.504103826276301</v>
+        <v>5.22230736640501</v>
       </c>
       <c r="F207">
-        <v>5.45754872070055</v>
+        <v>5.299772902349742</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5.363247716087388</v>
+        <v>5.180255953904878</v>
       </c>
       <c r="C208">
-        <v>5.490225380081147</v>
+        <v>5.602588043667015</v>
       </c>
       <c r="D208">
-        <v>5.389147805672642</v>
+        <v>5.296407609770893</v>
       </c>
       <c r="E208">
-        <v>5.500180199689691</v>
+        <v>5.204380017281826</v>
       </c>
       <c r="F208">
-        <v>5.445462865428659</v>
+        <v>5.284012973324734</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5.360510183279119</v>
+        <v>5.163705062796718</v>
       </c>
       <c r="C209">
-        <v>5.483544024428204</v>
+        <v>5.601558919156935</v>
       </c>
       <c r="D209">
-        <v>5.382723456008345</v>
+        <v>5.281752943530479</v>
       </c>
       <c r="E209">
-        <v>5.496218042953108</v>
+        <v>5.186399168139136</v>
       </c>
       <c r="F209">
-        <v>5.433325460814445</v>
+        <v>5.268168926184754</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>5.357755567843606</v>
+        <v>5.147148344119525</v>
       </c>
       <c r="C210">
-        <v>5.476807592500144</v>
+        <v>5.60050617118879</v>
       </c>
       <c r="D210">
-        <v>5.376292340222371</v>
+        <v>5.26702432271662</v>
       </c>
       <c r="E210">
-        <v>5.49221772694536</v>
+        <v>5.168367340398013</v>
       </c>
       <c r="F210">
-        <v>5.421137941049696</v>
+        <v>5.252243117346246</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>5.354984088739557</v>
+        <v>5.130586734109318</v>
       </c>
       <c r="C211">
-        <v>5.47001679496884</v>
+        <v>5.599429954766923</v>
       </c>
       <c r="D211">
-        <v>5.369854925658323</v>
+        <v>5.252223714674979</v>
       </c>
       <c r="E211">
-        <v>5.488179620667545</v>
+        <v>5.150286987925983</v>
       </c>
       <c r="F211">
-        <v>5.408901711767748</v>
+        <v>5.236237866283265</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>5.352195961832117</v>
+        <v>5.114021133989328</v>
       </c>
       <c r="C212">
-        <v>5.463172336311429</v>
+        <v>5.598330423959761</v>
       </c>
       <c r="D212">
-        <v>5.363411662800236</v>
+        <v>5.237353050263447</v>
       </c>
       <c r="E212">
-        <v>5.484104091667205</v>
+        <v>5.132160499196015</v>
       </c>
       <c r="F212">
-        <v>5.396618155992714</v>
+        <v>5.220155457017469</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5.349391399919299</v>
+        <v>5.097452402945367</v>
       </c>
       <c r="C213">
-        <v>5.456274916574721</v>
+        <v>5.59720773190331</v>
       </c>
       <c r="D213">
-        <v>5.35696298562653</v>
+        <v>5.222414223112176</v>
       </c>
       <c r="E213">
-        <v>5.479991505420119</v>
+        <v>5.113990196627814</v>
       </c>
       <c r="F213">
-        <v>5.384288630309774</v>
+        <v>5.203998138912453</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5.346570615800728</v>
+        <v>5.080881356920922</v>
       </c>
       <c r="C214">
-        <v>5.449325228300597</v>
+        <v>5.596062030810769</v>
       </c>
       <c r="D214">
-        <v>5.350509315235453</v>
+        <v>5.207409091571827</v>
       </c>
       <c r="E214">
-        <v>5.475842225247761</v>
+        <v>5.095778342617922</v>
       </c>
       <c r="F214">
-        <v>5.37191446663471</v>
+        <v>5.187768126104426</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5.34373382080256</v>
+        <v>5.064308781632393</v>
       </c>
       <c r="C215">
-        <v>5.442323957857213</v>
+        <v>5.594893471951657</v>
       </c>
       <c r="D215">
-        <v>5.344051057805822</v>
+        <v>5.192339476525509</v>
       </c>
       <c r="E215">
-        <v>5.471656612723431</v>
+        <v>5.077527138917969</v>
       </c>
       <c r="F215">
-        <v>5.359496972812123</v>
+        <v>5.17146759876105</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5.340881217153687</v>
+        <v>5.047735425439699</v>
       </c>
       <c r="C216">
-        <v>5.435271785808188</v>
+        <v>5.593702205710213</v>
       </c>
       <c r="D216">
-        <v>5.337588603824505</v>
+        <v>5.17720716404108</v>
       </c>
       <c r="E216">
-        <v>5.467435027494708</v>
+        <v>5.059238727019816</v>
       </c>
       <c r="F216">
-        <v>5.347037423731663</v>
+        <v>5.155098703462999</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5.338013007391682</v>
+        <v>5.031162000560347</v>
       </c>
       <c r="C217">
-        <v>5.428169386891524</v>
+        <v>5.592488381559257</v>
       </c>
       <c r="D217">
-        <v>5.331122332597964</v>
+        <v>5.162013905402531</v>
       </c>
       <c r="E217">
-        <v>5.463177827825553</v>
+        <v>5.040915187113141</v>
       </c>
       <c r="F217">
-        <v>5.334537080427655</v>
+        <v>5.138663553668065</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5.335129391380408</v>
+        <v>5.014589192303959</v>
       </c>
       <c r="C218">
-        <v>5.421017430897757</v>
+        <v>5.591252148068198</v>
       </c>
       <c r="D218">
-        <v>5.324652610056766</v>
+        <v>5.146761416837855</v>
       </c>
       <c r="E218">
-        <v>5.458885369856423</v>
+        <v>5.022558550571708</v>
       </c>
       <c r="F218">
-        <v>5.321997180043234</v>
+        <v>5.122164230206193</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5.332230566352754</v>
+        <v>4.998017652941268</v>
       </c>
       <c r="C219">
-        <v>5.413816580071046</v>
+        <v>5.589993652911285</v>
       </c>
       <c r="D219">
-        <v>5.318179786363828</v>
+        <v>5.131451382059524</v>
       </c>
       <c r="E219">
-        <v>5.454558007450794</v>
+        <v>5.004170793105432</v>
       </c>
       <c r="F219">
-        <v>5.309418936328428</v>
+        <v>5.105602781805633</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5.329316726953371</v>
+        <v>4.981448004943871</v>
       </c>
       <c r="C220">
-        <v>5.406567491260549</v>
+        <v>5.588713042846107</v>
       </c>
       <c r="D220">
-        <v>5.311704202814665</v>
+        <v>5.116085451440989</v>
       </c>
       <c r="E220">
-        <v>5.450196092760115</v>
+        <v>4.985753833415315</v>
       </c>
       <c r="F220">
-        <v>5.296803541357688</v>
+        <v>5.088981225513722</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5.326388066593325</v>
+        <v>4.964880846591464</v>
       </c>
       <c r="C221">
-        <v>5.399270815351426</v>
+        <v>5.587410463775249</v>
       </c>
       <c r="D221">
-        <v>5.30522618918247</v>
+        <v>5.100665242802169</v>
       </c>
       <c r="E221">
-        <v>5.445799975998455</v>
+        <v>4.967309536797946</v>
       </c>
       <c r="F221">
-        <v>5.284152159620521</v>
+        <v>5.072301547406232</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5.323444774729965</v>
+        <v>4.948316746954108</v>
       </c>
       <c r="C222">
-        <v>5.391927197851944</v>
+        <v>5.58608606071384</v>
       </c>
       <c r="D222">
-        <v>5.298746064267459</v>
+        <v>5.085192340701046</v>
       </c>
       <c r="E222">
-        <v>5.441370005730595</v>
+        <v>4.948839726415568</v>
       </c>
       <c r="F222">
-        <v>5.271465929074161</v>
+        <v>5.055565702947765</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5.320487038621038</v>
+        <v>4.931756250906217</v>
       </c>
       <c r="C223">
-        <v>5.384537278207607</v>
+        <v>5.584739977801727</v>
       </c>
       <c r="D223">
-        <v>5.292264136766116</v>
+        <v>5.069668300035572</v>
       </c>
       <c r="E223">
-        <v>5.436906528489143</v>
+        <v>4.93034617473019</v>
       </c>
       <c r="F223">
-        <v>5.258745981747786</v>
+        <v>5.038775617289486</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5.317515043338413</v>
+        <v>4.91519988144279</v>
       </c>
       <c r="C224">
-        <v>5.377101689626315</v>
+        <v>5.58337235831046</v>
       </c>
       <c r="D224">
-        <v>5.285780694974808</v>
+        <v>5.054094644358856</v>
       </c>
       <c r="E224">
-        <v>5.432409888657323</v>
+        <v>4.911830600161094</v>
       </c>
       <c r="F224">
-        <v>5.245993422775499</v>
+        <v>5.021933186153841</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5.314528971630999</v>
+        <v>4.898648135556977</v>
       </c>
       <c r="C225">
-        <v>5.369621059681723</v>
+        <v>5.581983344620309</v>
       </c>
       <c r="D225">
-        <v>5.279296029181466</v>
+        <v>5.03847286685878</v>
       </c>
       <c r="E225">
-        <v>5.427880428794678</v>
+        <v>4.893294677917289</v>
       </c>
       <c r="F225">
-        <v>5.23320933739819</v>
+        <v>5.005040276165702</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5.311529003970704</v>
+        <v>4.882101491064609</v>
       </c>
       <c r="C226">
-        <v>5.362096010143173</v>
+        <v>5.580573078286882</v>
       </c>
       <c r="D226">
-        <v>5.272810417802938</v>
+        <v>5.022804430052095</v>
       </c>
       <c r="E226">
-        <v>5.423318489507862</v>
+        <v>4.874740042625466</v>
       </c>
       <c r="F226">
-        <v>5.220394791451632</v>
+        <v>4.988098725184762</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5.308515317837531</v>
+        <v>4.865560405716436</v>
       </c>
       <c r="C227">
-        <v>5.354527157611638</v>
+        <v>5.579141700001353</v>
       </c>
       <c r="D227">
-        <v>5.266324130080219</v>
+        <v>5.007090768536097</v>
       </c>
       <c r="E227">
-        <v>5.418724409681041</v>
+        <v>4.856168283952804</v>
       </c>
       <c r="F227">
-        <v>5.207550815831506</v>
+        <v>4.971110342780512</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5.305488086614651</v>
+        <v>4.849025314386615</v>
       </c>
       <c r="C228">
-        <v>5.346915112170088</v>
+        <v>5.577689349606846</v>
       </c>
       <c r="D228">
-        <v>5.259837427218423</v>
+        <v>4.991333287878034</v>
       </c>
       <c r="E228">
-        <v>5.414098526184175</v>
+        <v>4.837580942125268</v>
       </c>
       <c r="F228">
-        <v>5.194678441695623</v>
+        <v>4.954076911133517</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5.302447485166153</v>
+        <v>4.832496636702006</v>
       </c>
       <c r="C229">
-        <v>5.339260478442812</v>
+        <v>5.576216166103618</v>
       </c>
       <c r="D229">
-        <v>5.253350542453199</v>
+        <v>4.975533365420556</v>
       </c>
       <c r="E229">
-        <v>5.409441173752973</v>
+        <v>4.818979522658463</v>
       </c>
       <c r="F229">
-        <v>5.181778675461396</v>
+        <v>4.937000185150081</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5.299393684590401</v>
+        <v>4.815974773743195</v>
       </c>
       <c r="C230">
-        <v>5.331563855348237</v>
+        <v>5.57472228762745</v>
       </c>
       <c r="D230">
-        <v>5.246863724488163</v>
+        <v>4.959692350196311</v>
       </c>
       <c r="E230">
-        <v>5.404752685270372</v>
+        <v>4.80036549102965</v>
       </c>
       <c r="F230">
-        <v>5.168852504708862</v>
+        <v>4.919881892476892</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5.296326853827438</v>
+        <v>4.799460107406778</v>
       </c>
       <c r="C231">
-        <v>5.3238258363491</v>
+        <v>5.573207851515539</v>
       </c>
       <c r="D231">
-        <v>5.240377207033667</v>
+        <v>4.94381156522457</v>
       </c>
       <c r="E231">
-        <v>5.40003339165893</v>
+        <v>4.781740273467349</v>
       </c>
       <c r="F231">
-        <v>5.155900899119555</v>
+        <v>4.902723735060922</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>5.293247159697743</v>
+        <v>4.782953006297269</v>
       </c>
       <c r="C232">
-        <v>5.316047009397666</v>
+        <v>5.571672994265296</v>
       </c>
       <c r="D232">
-        <v>5.233891215905619</v>
+        <v>4.927892306691862</v>
       </c>
       <c r="E232">
-        <v>5.395283622109175</v>
+        <v>4.763105251755451</v>
       </c>
       <c r="F232">
-        <v>5.142924806353045</v>
+        <v>4.885527388892409</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>5.290154766940991</v>
+        <v>4.76645382265488</v>
       </c>
       <c r="C233">
-        <v>5.308227956467946</v>
+        <v>5.570117851551863</v>
       </c>
       <c r="D233">
-        <v>5.227405969939694</v>
+        <v>4.91193584436117</v>
       </c>
       <c r="E233">
-        <v>5.390503703808591</v>
+        <v>4.744461778938237</v>
       </c>
       <c r="F233">
-        <v>5.129925156240507</v>
+        <v>4.86829450391135</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5.287049836555552</v>
+        <v>4.749962892680108</v>
       </c>
       <c r="C234">
-        <v>5.300369254125548</v>
+        <v>5.568542558231777</v>
       </c>
       <c r="D234">
-        <v>5.22092166473832</v>
+        <v>4.89594342094904</v>
       </c>
       <c r="E234">
-        <v>5.385693961797999</v>
+        <v>4.725811170247344</v>
       </c>
       <c r="F234">
-        <v>5.116902867614671</v>
+        <v>4.851026705332036</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5.283932528753909</v>
+        <v>4.733480540831525</v>
       </c>
       <c r="C235">
-        <v>5.29247147339007</v>
+        <v>5.566947248324884</v>
       </c>
       <c r="D235">
-        <v>5.214438509170296</v>
+        <v>4.879916256180203</v>
       </c>
       <c r="E235">
-        <v>5.38085471927163</v>
+        <v>4.707154705908007</v>
       </c>
       <c r="F235">
-        <v>5.103858839579113</v>
+        <v>4.833725594479001</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5.280803002356445</v>
+        <v>4.717007076151696</v>
       </c>
       <c r="C236">
-        <v>5.284535180216127</v>
+        <v>5.565332055075166</v>
       </c>
       <c r="D236">
-        <v>5.207956698186673</v>
+        <v>4.86385554445898</v>
       </c>
       <c r="E236">
-        <v>5.375986297468257</v>
+        <v>4.688493628345777</v>
       </c>
       <c r="F236">
-        <v>5.090793954879138</v>
+        <v>4.816392748523396</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5.277661413586825</v>
+        <v>4.700542794230128</v>
       </c>
       <c r="C237">
-        <v>5.276560934660417</v>
+        <v>5.563697110912268</v>
       </c>
       <c r="D237">
-        <v>5.201476420312803</v>
+        <v>4.847762455717469</v>
       </c>
       <c r="E237">
-        <v>5.371089015860953</v>
+        <v>4.669829153352434</v>
       </c>
       <c r="F237">
-        <v>5.077709079933755</v>
+        <v>4.799029721218961</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5.274507916695754</v>
+        <v>4.684087981857451</v>
       </c>
       <c r="C238">
-        <v>5.268549291423875</v>
+        <v>5.56204254746821</v>
       </c>
       <c r="D238">
-        <v>5.194997857681325</v>
+        <v>4.831638135271233</v>
       </c>
       <c r="E238">
-        <v>5.36616319194636</v>
+        <v>4.651162463541251</v>
       </c>
       <c r="F238">
-        <v>5.064605058449495</v>
+        <v>4.781638041260711</v>
       </c>
     </row>
   </sheetData>
